--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02572756446897984</v>
+        <v>0.02411789633333683</v>
       </c>
       <c r="C2">
-        <v>0.0344889871776104</v>
+        <v>0.03491188958287239</v>
       </c>
       <c r="D2">
-        <v>-0.05251887440681458</v>
+        <v>-0.05050522461533546</v>
       </c>
       <c r="E2">
-        <v>-0.05881147086620331</v>
+        <v>-0.05897846817970276</v>
       </c>
       <c r="F2">
-        <v>0.002672388218343258</v>
+        <v>0.004239087924361229</v>
       </c>
       <c r="G2">
-        <v>-0.03637838363647461</v>
+        <v>-0.04133535921573639</v>
       </c>
       <c r="H2">
-        <v>0.01591475307941437</v>
+        <v>0.01440328732132912</v>
       </c>
       <c r="I2">
-        <v>0.003949971403926611</v>
+        <v>0.002469806000590324</v>
       </c>
       <c r="J2">
-        <v>0.1761315166950226</v>
+        <v>0.1701860874891281</v>
       </c>
       <c r="K2">
-        <v>0.008503326214849949</v>
+        <v>0.006030889227986336</v>
       </c>
       <c r="L2">
-        <v>0.003796412143856287</v>
+        <v>0.003652920946478844</v>
       </c>
       <c r="M2">
-        <v>0.01038649771362543</v>
+        <v>0.0101089458912611</v>
       </c>
       <c r="N2">
-        <v>-0.007612120360136032</v>
+        <v>0.001873121713288128</v>
       </c>
       <c r="O2">
-        <v>-0.06946589052677155</v>
+        <v>-0.06695622950792313</v>
       </c>
       <c r="P2">
-        <v>0.02367559634149075</v>
+        <v>0.02374612167477608</v>
       </c>
       <c r="Q2">
-        <v>-0.00397318322211504</v>
+        <v>-0.005983936600387096</v>
       </c>
       <c r="R2">
-        <v>-0.004853780381381512</v>
+        <v>-0.008872548118233681</v>
       </c>
       <c r="S2">
-        <v>0.09382934123277664</v>
+        <v>0.09319663792848587</v>
       </c>
       <c r="T2">
-        <v>0.06331263482570648</v>
+        <v>0.06308485567569733</v>
       </c>
       <c r="U2">
-        <v>0.09202492237091064</v>
+        <v>0.09044452756643295</v>
       </c>
       <c r="V2">
-        <v>-0.008885782212018967</v>
+        <v>-0.006252930965274572</v>
       </c>
       <c r="W2">
-        <v>-0.06905372440814972</v>
+        <v>-0.07149342447519302</v>
       </c>
       <c r="X2">
-        <v>0.0008380156941711903</v>
+        <v>0.006826860830187798</v>
       </c>
       <c r="Y2">
-        <v>0.08725312352180481</v>
+        <v>0.0872783362865448</v>
       </c>
       <c r="Z2">
-        <v>-0.08006846159696579</v>
+        <v>-0.08043331652879715</v>
       </c>
       <c r="AA2">
-        <v>0.002668131608515978</v>
+        <v>0.003762810956686735</v>
       </c>
       <c r="AB2">
-        <v>0.04589158669114113</v>
+        <v>0.04875380545854568</v>
       </c>
       <c r="AC2">
-        <v>0.07257808744907379</v>
+        <v>0.07099504023790359</v>
       </c>
       <c r="AD2">
-        <v>-0.07317300885915756</v>
+        <v>-0.07313255220651627</v>
       </c>
       <c r="AE2">
-        <v>-0.1160781905055046</v>
+        <v>-0.114507369697094</v>
       </c>
       <c r="AF2">
-        <v>-0.01320173963904381</v>
+        <v>-0.01519802492111921</v>
       </c>
       <c r="AG2">
-        <v>-0.114078626036644</v>
+        <v>-0.1160954236984253</v>
       </c>
       <c r="AH2">
-        <v>0.06023697927594185</v>
+        <v>0.05987967550754547</v>
       </c>
       <c r="AI2">
-        <v>-0.04924970492720604</v>
+        <v>-0.05110593140125275</v>
       </c>
       <c r="AJ2">
-        <v>0.0009792727651074529</v>
+        <v>-0.001996344653889537</v>
       </c>
       <c r="AK2">
-        <v>-0.002237578621134162</v>
+        <v>-0.0007179622771218419</v>
       </c>
       <c r="AL2">
-        <v>0.002324314787983894</v>
+        <v>0.000341549573931843</v>
       </c>
       <c r="AM2">
-        <v>-0.02107485197484493</v>
+        <v>-0.01970363967120647</v>
       </c>
       <c r="AN2">
-        <v>-0.08913711458444595</v>
+        <v>-0.0894167348742485</v>
       </c>
       <c r="AO2">
-        <v>-0.04863720759749413</v>
+        <v>-0.04991897568106651</v>
       </c>
       <c r="AP2">
-        <v>-0.1023141443729401</v>
+        <v>-0.09980235248804092</v>
       </c>
       <c r="AQ2">
-        <v>0.004463998600840569</v>
+        <v>-0.0001028338811011054</v>
       </c>
       <c r="AR2">
-        <v>0.06574249267578125</v>
+        <v>0.06445346027612686</v>
       </c>
       <c r="AS2">
-        <v>-0.07174992561340332</v>
+        <v>-0.07161401212215424</v>
       </c>
       <c r="AT2">
-        <v>-0.03396396338939667</v>
+        <v>-0.03780832514166832</v>
       </c>
       <c r="AU2">
-        <v>0.01386105921119452</v>
+        <v>0.01502509135752916</v>
       </c>
       <c r="AV2">
-        <v>0.0268891416490078</v>
+        <v>0.02642042376101017</v>
       </c>
       <c r="AW2">
-        <v>0.003344948869198561</v>
+        <v>0.003961652051657438</v>
       </c>
       <c r="AX2">
-        <v>0.03376330807805061</v>
+        <v>0.02956147491931915</v>
       </c>
       <c r="AY2">
-        <v>-0.06850343197584152</v>
+        <v>-0.07243958860635757</v>
       </c>
       <c r="AZ2">
-        <v>-0.07701174914836884</v>
+        <v>-0.07790841907262802</v>
       </c>
       <c r="BA2">
-        <v>0.001040597562678158</v>
+        <v>-0.000905372085981071</v>
       </c>
       <c r="BB2">
-        <v>-0.01288667134940624</v>
+        <v>-0.01528836227953434</v>
       </c>
       <c r="BC2">
-        <v>0.003309208899736404</v>
+        <v>0.005380552727729082</v>
       </c>
       <c r="BD2">
-        <v>0.1437568813562393</v>
+        <v>0.143310546875</v>
       </c>
       <c r="BE2">
-        <v>0.003838962176814675</v>
+        <v>-0.001274093403480947</v>
       </c>
       <c r="BF2">
-        <v>0.01846491359174252</v>
+        <v>0.01749338954687119</v>
       </c>
       <c r="BG2">
-        <v>0.09958963841199875</v>
+        <v>0.0991644412279129</v>
       </c>
       <c r="BH2">
-        <v>0.006407905835658312</v>
+        <v>-0.002804388059303164</v>
       </c>
       <c r="BI2">
-        <v>-0.06751568615436554</v>
+        <v>-0.06784839928150177</v>
       </c>
       <c r="BJ2">
-        <v>0.03762601688504219</v>
+        <v>0.03376783803105354</v>
       </c>
       <c r="BK2">
-        <v>0.001551901921629906</v>
+        <v>0.007620556745678186</v>
       </c>
       <c r="BL2">
-        <v>0.03033016063272953</v>
+        <v>0.02890867367386818</v>
       </c>
       <c r="BM2">
-        <v>0.08252996951341629</v>
+        <v>0.08546912670135498</v>
       </c>
       <c r="BN2">
-        <v>0.009350800886750221</v>
+        <v>0.008439132943749428</v>
       </c>
       <c r="BO2">
-        <v>0.05520302429795265</v>
+        <v>0.05367392301559448</v>
       </c>
       <c r="BP2">
-        <v>-0.03259896859526634</v>
+        <v>-0.03152994439005852</v>
       </c>
       <c r="BQ2">
-        <v>0.07363149523735046</v>
+        <v>0.07747121900320053</v>
       </c>
       <c r="BR2">
-        <v>0.004636586643755436</v>
+        <v>0.003234671195968986</v>
       </c>
       <c r="BS2">
-        <v>-0.007656997535377741</v>
+        <v>-0.01127430237829685</v>
       </c>
       <c r="BT2">
-        <v>-0.001108381082303822</v>
+        <v>0.0003818128898274153</v>
       </c>
       <c r="BU2">
-        <v>0.04272343590855598</v>
+        <v>0.04266593605279922</v>
       </c>
       <c r="BV2">
-        <v>-0.08070177584886551</v>
+        <v>-0.08241023123264313</v>
       </c>
       <c r="BW2">
-        <v>-0.005521217361092567</v>
+        <v>-0.004395976196974516</v>
       </c>
       <c r="BX2">
-        <v>0.02995292656123638</v>
+        <v>0.02390951663255692</v>
       </c>
       <c r="BY2">
-        <v>-0.01256588753312826</v>
+        <v>-0.01249438244849443</v>
       </c>
       <c r="BZ2">
-        <v>0.06946165859699249</v>
+        <v>0.06637287884950638</v>
       </c>
       <c r="CA2">
-        <v>0.02077830769121647</v>
+        <v>0.02308348752558231</v>
       </c>
       <c r="CB2">
-        <v>-0.0620364211499691</v>
+        <v>-0.06293806433677673</v>
       </c>
       <c r="CC2">
-        <v>-0.0009532356052659452</v>
+        <v>-0.001783877029083669</v>
       </c>
       <c r="CD2">
-        <v>0.02174595929682255</v>
+        <v>0.0209333673119545</v>
       </c>
       <c r="CE2">
-        <v>-0.03153480961918831</v>
+        <v>-0.03144918382167816</v>
       </c>
       <c r="CF2">
-        <v>-0.02495601400732994</v>
+        <v>-0.02821319177746773</v>
       </c>
       <c r="CG2">
-        <v>-0.03941908106207848</v>
+        <v>-0.04097940027713776</v>
       </c>
       <c r="CH2">
-        <v>0.00989188626408577</v>
+        <v>0.01020981557667255</v>
       </c>
       <c r="CI2">
-        <v>-0.02114828862249851</v>
+        <v>-0.02085431106388569</v>
       </c>
       <c r="CJ2">
-        <v>-0.06648501008749008</v>
+        <v>-0.06685871630907059</v>
       </c>
       <c r="CK2">
-        <v>0.02103023417294025</v>
+        <v>0.02095159143209457</v>
       </c>
       <c r="CL2">
-        <v>-0.0006996000302024186</v>
+        <v>-0.002000696025788784</v>
       </c>
       <c r="CM2">
-        <v>0.06952487677335739</v>
+        <v>0.06817767769098282</v>
       </c>
       <c r="CN2">
-        <v>0.012722740881145</v>
+        <v>0.01165373902767897</v>
       </c>
       <c r="CO2">
-        <v>0.002877496415749192</v>
+        <v>0.002828220138326287</v>
       </c>
       <c r="CP2">
-        <v>0.0947987288236618</v>
+        <v>0.0954626128077507</v>
       </c>
       <c r="CQ2">
-        <v>-0.03134986758232117</v>
+        <v>-0.03120870143175125</v>
       </c>
       <c r="CR2">
-        <v>0.007018736097961664</v>
+        <v>0.001342068891972303</v>
       </c>
       <c r="CS2">
-        <v>0.004995154216885567</v>
+        <v>0.004853582475334406</v>
       </c>
       <c r="CT2">
-        <v>-0.003015758469700813</v>
+        <v>-0.003895873669534922</v>
       </c>
       <c r="CU2">
-        <v>-0.001204235944896936</v>
+        <v>-0.0003640168870333582</v>
       </c>
       <c r="CV2">
-        <v>0.003038808470591903</v>
+        <v>0.002169421408325434</v>
       </c>
       <c r="CW2">
-        <v>-0.04686187580227852</v>
+        <v>-0.04314770549535751</v>
       </c>
       <c r="CX2">
-        <v>0.01420990098267794</v>
+        <v>0.01375976670533419</v>
       </c>
       <c r="CY2">
-        <v>0.002809535479173064</v>
+        <v>0.00463789189234376</v>
       </c>
       <c r="CZ2">
-        <v>0.002595522673800588</v>
+        <v>0.003206725465133786</v>
       </c>
       <c r="DA2">
-        <v>-0.06552591174840927</v>
+        <v>-0.06786641478538513</v>
       </c>
       <c r="DB2">
-        <v>0.00463481992483139</v>
+        <v>0.001259332639165223</v>
       </c>
       <c r="DC2">
-        <v>0.004162533674389124</v>
+        <v>0.004182242322713137</v>
       </c>
       <c r="DD2">
-        <v>-0.2154395431280136</v>
+        <v>-0.2190952897071838</v>
       </c>
       <c r="DE2">
-        <v>0.005320523399859667</v>
+        <v>0.005650669801980257</v>
       </c>
       <c r="DF2">
-        <v>-0.003158144420012832</v>
+        <v>-0.00529099814593792</v>
       </c>
       <c r="DG2">
-        <v>0.0173224825412035</v>
+        <v>0.01616632752120495</v>
       </c>
       <c r="DH2">
-        <v>0.1095742657780647</v>
+        <v>0.1094463542103767</v>
       </c>
       <c r="DI2">
-        <v>0.004790781997144222</v>
+        <v>0.006143890786916018</v>
       </c>
       <c r="DJ2">
-        <v>-0.01429456658661366</v>
+        <v>-0.01168269291520119</v>
       </c>
       <c r="DK2">
-        <v>-0.05076669901609421</v>
+        <v>-0.05344928056001663</v>
       </c>
       <c r="DL2">
-        <v>-0.09331064671278</v>
+        <v>-0.09318429976701736</v>
       </c>
       <c r="DM2">
-        <v>0.001154595287516713</v>
+        <v>-0.001838308293372393</v>
       </c>
       <c r="DN2">
-        <v>-0.1426293700933456</v>
+        <v>-0.1429854929447174</v>
       </c>
       <c r="DO2">
-        <v>0.04918510839343071</v>
+        <v>0.04909020662307739</v>
       </c>
       <c r="DP2">
-        <v>0.0039092767983675</v>
+        <v>0.002281672786921263</v>
       </c>
       <c r="DQ2">
-        <v>0.009072908200323582</v>
+        <v>0.008726748637855053</v>
       </c>
       <c r="DR2">
-        <v>0.01195397693663836</v>
+        <v>0.01257094461470842</v>
       </c>
       <c r="DS2">
-        <v>-0.04765835776925087</v>
+        <v>-0.0477418415248394</v>
       </c>
       <c r="DT2">
-        <v>0.0002727766113821417</v>
+        <v>-0.0003731120377779007</v>
       </c>
       <c r="DU2">
-        <v>0.05384459719061852</v>
+        <v>0.05275759473443031</v>
       </c>
       <c r="DV2">
-        <v>0.01221540570259094</v>
+        <v>0.01366349775344133</v>
       </c>
       <c r="DW2">
-        <v>-0.006395840551704168</v>
+        <v>-0.004897898528724909</v>
       </c>
       <c r="DX2">
-        <v>0.0535077191889286</v>
+        <v>0.05326153337955475</v>
       </c>
       <c r="DY2">
-        <v>-0.05080745369195938</v>
+        <v>-0.05057529732584953</v>
       </c>
       <c r="DZ2">
-        <v>-0.002965927124023438</v>
+        <v>0.0006871280493214726</v>
       </c>
       <c r="EA2">
-        <v>0.05458583310246468</v>
+        <v>0.05401884391903877</v>
       </c>
       <c r="EB2">
-        <v>-0.05762264505028725</v>
+        <v>-0.05794715881347656</v>
       </c>
       <c r="EC2">
-        <v>-0.00565551919862628</v>
+        <v>-0.001061518676578999</v>
       </c>
       <c r="ED2">
-        <v>-0.02613173983991146</v>
+        <v>-0.02611444890499115</v>
       </c>
       <c r="EE2">
-        <v>0.0004425728693604469</v>
+        <v>-0.0001670041820034385</v>
       </c>
       <c r="EF2">
-        <v>0.01176523789763451</v>
+        <v>0.010543592274189</v>
       </c>
       <c r="EG2">
-        <v>-0.02832913585007191</v>
+        <v>-0.02697077579796314</v>
       </c>
       <c r="EH2">
-        <v>-0.1153596937656403</v>
+        <v>-0.1195948868989944</v>
       </c>
       <c r="EI2">
-        <v>-0.0218768548220396</v>
+        <v>-0.02377154864370823</v>
       </c>
       <c r="EJ2">
-        <v>0.07078585773706436</v>
+        <v>0.07280929386615753</v>
       </c>
       <c r="EK2">
-        <v>-0.004332792013883591</v>
+        <v>-0.005358287133276463</v>
       </c>
       <c r="EL2">
-        <v>0.0009899031138047576</v>
+        <v>0.0008235538844019175</v>
       </c>
       <c r="EM2">
-        <v>0.00887729786336422</v>
+        <v>0.008788479492068291</v>
       </c>
       <c r="EN2">
-        <v>0.006405902095139027</v>
+        <v>0.00665350491181016</v>
       </c>
       <c r="EO2">
-        <v>-0.08662348240613937</v>
+        <v>-0.08776776492595673</v>
       </c>
       <c r="EP2">
-        <v>0.1561659723520279</v>
+        <v>0.153247281908989</v>
       </c>
       <c r="EQ2">
-        <v>0.06804120540618896</v>
+        <v>0.06771336495876312</v>
       </c>
       <c r="ER2">
-        <v>-0.002802374539896846</v>
+        <v>-0.001886142650619149</v>
       </c>
       <c r="ES2">
-        <v>0.0276420246809721</v>
+        <v>0.02443420700728893</v>
       </c>
       <c r="ET2">
-        <v>0.06130863353610039</v>
+        <v>0.0613514743745327</v>
       </c>
       <c r="EU2">
-        <v>0.01639297604560852</v>
+        <v>0.01562194805592299</v>
       </c>
       <c r="EV2">
-        <v>0.02064850367605686</v>
+        <v>0.02144000120460987</v>
       </c>
       <c r="EW2">
-        <v>-0.01062379777431488</v>
+        <v>-0.008545155636966228</v>
       </c>
       <c r="EX2">
-        <v>-0.1561823487281799</v>
+        <v>-0.1585868895053864</v>
       </c>
       <c r="EY2">
-        <v>-0.007902152836322784</v>
+        <v>-0.007477956358343363</v>
       </c>
       <c r="EZ2">
-        <v>-0.04643009975552559</v>
+        <v>-0.04626531526446342</v>
       </c>
       <c r="FA2">
-        <v>0.01318889018148184</v>
+        <v>0.0115108760073781</v>
       </c>
       <c r="FB2">
-        <v>-0.001989704556763172</v>
+        <v>-0.001889742910861969</v>
       </c>
       <c r="FC2">
-        <v>-0.1028267443180084</v>
+        <v>-0.1030466333031654</v>
       </c>
       <c r="FD2">
-        <v>0.0005666892393492162</v>
+        <v>0.00145750108640641</v>
       </c>
       <c r="FE2">
-        <v>-0.02833024598658085</v>
+        <v>-0.02897311560809612</v>
       </c>
       <c r="FF2">
-        <v>-0.13088458776474</v>
+        <v>-0.1297942399978638</v>
       </c>
       <c r="FG2">
-        <v>-0.1363926380872726</v>
+        <v>-0.1357644200325012</v>
       </c>
       <c r="FH2">
-        <v>0.0007192619959823787</v>
+        <v>0.004599749110639095</v>
       </c>
       <c r="FI2">
-        <v>-0.02498580142855644</v>
+        <v>-0.02514285035431385</v>
       </c>
       <c r="FJ2">
-        <v>0.003384668612852693</v>
+        <v>0.002939593279734254</v>
       </c>
       <c r="FK2">
-        <v>-0.06160122156143188</v>
+        <v>-0.06167793646454811</v>
       </c>
       <c r="FL2">
-        <v>0.03326263278722763</v>
+        <v>0.03397136181592941</v>
       </c>
       <c r="FM2">
-        <v>0.009373885579407215</v>
+        <v>0.008309880271553993</v>
       </c>
       <c r="FN2">
-        <v>-0.003833385184407234</v>
+        <v>-0.005881305783987045</v>
       </c>
       <c r="FO2">
-        <v>0.006859270855784416</v>
+        <v>0.009913682006299496</v>
       </c>
       <c r="FP2">
-        <v>0.0108215669170022</v>
+        <v>0.01449551060795784</v>
       </c>
       <c r="FQ2">
-        <v>0.003829485503956676</v>
+        <v>0.003394162049517035</v>
       </c>
       <c r="FR2">
-        <v>-0.000581618573050946</v>
+        <v>-0.0004932195297442377</v>
       </c>
       <c r="FS2">
-        <v>-0.0006068169022910297</v>
+        <v>-0.001720312400721014</v>
       </c>
       <c r="FT2">
-        <v>0.005512683652341366</v>
+        <v>0.005230528768151999</v>
       </c>
       <c r="FU2">
-        <v>0.1015495136380196</v>
+        <v>0.1014179289340973</v>
       </c>
       <c r="FV2">
-        <v>-0.07746394723653793</v>
+        <v>-0.07778109610080719</v>
       </c>
       <c r="FW2">
-        <v>0.05683205276727676</v>
+        <v>0.05611792206764221</v>
       </c>
       <c r="FX2">
-        <v>-0.008796557784080505</v>
+        <v>-0.00478831771761179</v>
       </c>
       <c r="FY2">
-        <v>0.002737121656537056</v>
+        <v>0.004870729055255651</v>
       </c>
       <c r="FZ2">
-        <v>0.002891601528972387</v>
+        <v>0.002567374147474766</v>
       </c>
       <c r="GA2">
-        <v>-0.007138294167816639</v>
+        <v>-0.009368481114506721</v>
       </c>
       <c r="GB2">
-        <v>0.01226833183318377</v>
+        <v>0.01381263788789511</v>
       </c>
       <c r="GC2">
-        <v>-0.08496667444705963</v>
+        <v>-0.08445050567388535</v>
       </c>
       <c r="GD2">
-        <v>0.048928402364254</v>
+        <v>0.05133485049009323</v>
       </c>
       <c r="GE2">
-        <v>0.005038970615714788</v>
+        <v>0.005020228214561939</v>
       </c>
       <c r="GF2">
-        <v>0.01029973570257425</v>
+        <v>0.006140648387372494</v>
       </c>
       <c r="GG2">
-        <v>-0.1279975026845932</v>
+        <v>-0.130723237991333</v>
       </c>
       <c r="GH2">
-        <v>0.002793446881696582</v>
+        <v>-0.001592284301295877</v>
       </c>
       <c r="GI2">
-        <v>0.0403396300971508</v>
+        <v>0.04309534281492233</v>
       </c>
       <c r="GJ2">
-        <v>-0.01423520501703024</v>
+        <v>-0.01704602502286434</v>
       </c>
       <c r="GK2">
-        <v>-0.05909424275159836</v>
+        <v>-0.05857624486088753</v>
       </c>
       <c r="GL2">
-        <v>-0.008245737291872501</v>
+        <v>-0.008795133791863918</v>
       </c>
       <c r="GM2">
-        <v>-0.1064236462116241</v>
+        <v>-0.1051822677254677</v>
       </c>
       <c r="GN2">
-        <v>0.07387716323137283</v>
+        <v>0.07325080037117004</v>
       </c>
       <c r="GO2">
-        <v>-0.05045881867408752</v>
+        <v>-0.05138985067605972</v>
       </c>
       <c r="GP2">
-        <v>0.001810147543437779</v>
+        <v>0.001150171854533255</v>
       </c>
       <c r="GQ2">
-        <v>0.007656633853912354</v>
+        <v>0.00848953053355217</v>
       </c>
       <c r="GR2">
-        <v>0.003260469296947122</v>
+        <v>0.002844706643372774</v>
       </c>
       <c r="GS2">
-        <v>-0.02900470606982708</v>
+        <v>-0.03103555925190449</v>
       </c>
       <c r="GT2">
-        <v>-0.008294620551168919</v>
+        <v>-0.00525842746719718</v>
       </c>
       <c r="GU2">
-        <v>0.01453584898263216</v>
+        <v>0.01511967368423939</v>
       </c>
       <c r="GV2">
-        <v>0.009867025539278984</v>
+        <v>0.008531671948730946</v>
       </c>
       <c r="GW2">
-        <v>-0.0409962423145771</v>
+        <v>-0.03920381516218185</v>
       </c>
       <c r="GX2">
-        <v>0.004217016510665417</v>
+        <v>0.003576494986191392</v>
       </c>
       <c r="GY2">
-        <v>0.0009538825252093375</v>
+        <v>0.0007375342538580298</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02411789633333683</v>
+        <v>0.02572756446897984</v>
       </c>
       <c r="C2">
-        <v>0.03491188958287239</v>
+        <v>0.0344889871776104</v>
       </c>
       <c r="D2">
-        <v>-0.05050522461533546</v>
+        <v>-0.05251887440681458</v>
       </c>
       <c r="E2">
-        <v>-0.05897846817970276</v>
+        <v>-0.05881147086620331</v>
       </c>
       <c r="F2">
-        <v>0.004239087924361229</v>
+        <v>0.002672388218343258</v>
       </c>
       <c r="G2">
-        <v>-0.04133535921573639</v>
+        <v>-0.03637838363647461</v>
       </c>
       <c r="H2">
-        <v>0.01440328732132912</v>
+        <v>0.01591475307941437</v>
       </c>
       <c r="I2">
-        <v>0.002469806000590324</v>
+        <v>0.003949971403926611</v>
       </c>
       <c r="J2">
-        <v>0.1701860874891281</v>
+        <v>0.1761315166950226</v>
       </c>
       <c r="K2">
-        <v>0.006030889227986336</v>
+        <v>0.008503326214849949</v>
       </c>
       <c r="L2">
-        <v>0.003652920946478844</v>
+        <v>0.003796412143856287</v>
       </c>
       <c r="M2">
-        <v>0.0101089458912611</v>
+        <v>0.01038649771362543</v>
       </c>
       <c r="N2">
-        <v>0.001873121713288128</v>
+        <v>-0.007612120360136032</v>
       </c>
       <c r="O2">
-        <v>-0.06695622950792313</v>
+        <v>-0.06946589052677155</v>
       </c>
       <c r="P2">
-        <v>0.02374612167477608</v>
+        <v>0.02367559634149075</v>
       </c>
       <c r="Q2">
-        <v>-0.005983936600387096</v>
+        <v>-0.00397318322211504</v>
       </c>
       <c r="R2">
-        <v>-0.008872548118233681</v>
+        <v>-0.004853780381381512</v>
       </c>
       <c r="S2">
-        <v>0.09319663792848587</v>
+        <v>0.09382934123277664</v>
       </c>
       <c r="T2">
-        <v>0.06308485567569733</v>
+        <v>0.06331263482570648</v>
       </c>
       <c r="U2">
-        <v>0.09044452756643295</v>
+        <v>0.09202492237091064</v>
       </c>
       <c r="V2">
-        <v>-0.006252930965274572</v>
+        <v>-0.008885782212018967</v>
       </c>
       <c r="W2">
-        <v>-0.07149342447519302</v>
+        <v>-0.06905372440814972</v>
       </c>
       <c r="X2">
-        <v>0.006826860830187798</v>
+        <v>0.0008380156941711903</v>
       </c>
       <c r="Y2">
-        <v>0.0872783362865448</v>
+        <v>0.08725312352180481</v>
       </c>
       <c r="Z2">
-        <v>-0.08043331652879715</v>
+        <v>-0.08006846159696579</v>
       </c>
       <c r="AA2">
-        <v>0.003762810956686735</v>
+        <v>0.002668131608515978</v>
       </c>
       <c r="AB2">
-        <v>0.04875380545854568</v>
+        <v>0.04589158669114113</v>
       </c>
       <c r="AC2">
-        <v>0.07099504023790359</v>
+        <v>0.07257808744907379</v>
       </c>
       <c r="AD2">
-        <v>-0.07313255220651627</v>
+        <v>-0.07317300885915756</v>
       </c>
       <c r="AE2">
-        <v>-0.114507369697094</v>
+        <v>-0.1160781905055046</v>
       </c>
       <c r="AF2">
-        <v>-0.01519802492111921</v>
+        <v>-0.01320173963904381</v>
       </c>
       <c r="AG2">
-        <v>-0.1160954236984253</v>
+        <v>-0.114078626036644</v>
       </c>
       <c r="AH2">
-        <v>0.05987967550754547</v>
+        <v>0.06023697927594185</v>
       </c>
       <c r="AI2">
-        <v>-0.05110593140125275</v>
+        <v>-0.04924970492720604</v>
       </c>
       <c r="AJ2">
-        <v>-0.001996344653889537</v>
+        <v>0.0009792727651074529</v>
       </c>
       <c r="AK2">
-        <v>-0.0007179622771218419</v>
+        <v>-0.002237578621134162</v>
       </c>
       <c r="AL2">
-        <v>0.000341549573931843</v>
+        <v>0.002324314787983894</v>
       </c>
       <c r="AM2">
-        <v>-0.01970363967120647</v>
+        <v>-0.02107485197484493</v>
       </c>
       <c r="AN2">
-        <v>-0.0894167348742485</v>
+        <v>-0.08913711458444595</v>
       </c>
       <c r="AO2">
-        <v>-0.04991897568106651</v>
+        <v>-0.04863720759749413</v>
       </c>
       <c r="AP2">
-        <v>-0.09980235248804092</v>
+        <v>-0.1023141443729401</v>
       </c>
       <c r="AQ2">
-        <v>-0.0001028338811011054</v>
+        <v>0.004463998600840569</v>
       </c>
       <c r="AR2">
-        <v>0.06445346027612686</v>
+        <v>0.06574249267578125</v>
       </c>
       <c r="AS2">
-        <v>-0.07161401212215424</v>
+        <v>-0.07174992561340332</v>
       </c>
       <c r="AT2">
-        <v>-0.03780832514166832</v>
+        <v>-0.03396396338939667</v>
       </c>
       <c r="AU2">
-        <v>0.01502509135752916</v>
+        <v>0.01386105921119452</v>
       </c>
       <c r="AV2">
-        <v>0.02642042376101017</v>
+        <v>0.0268891416490078</v>
       </c>
       <c r="AW2">
-        <v>0.003961652051657438</v>
+        <v>0.003344948869198561</v>
       </c>
       <c r="AX2">
-        <v>0.02956147491931915</v>
+        <v>0.03376330807805061</v>
       </c>
       <c r="AY2">
-        <v>-0.07243958860635757</v>
+        <v>-0.06850343197584152</v>
       </c>
       <c r="AZ2">
-        <v>-0.07790841907262802</v>
+        <v>-0.07701174914836884</v>
       </c>
       <c r="BA2">
-        <v>-0.000905372085981071</v>
+        <v>0.001040597562678158</v>
       </c>
       <c r="BB2">
-        <v>-0.01528836227953434</v>
+        <v>-0.01288667134940624</v>
       </c>
       <c r="BC2">
-        <v>0.005380552727729082</v>
+        <v>0.003309208899736404</v>
       </c>
       <c r="BD2">
-        <v>0.143310546875</v>
+        <v>0.1437568813562393</v>
       </c>
       <c r="BE2">
-        <v>-0.001274093403480947</v>
+        <v>0.003838962176814675</v>
       </c>
       <c r="BF2">
-        <v>0.01749338954687119</v>
+        <v>0.01846491359174252</v>
       </c>
       <c r="BG2">
-        <v>0.0991644412279129</v>
+        <v>0.09958963841199875</v>
       </c>
       <c r="BH2">
-        <v>-0.002804388059303164</v>
+        <v>0.006407905835658312</v>
       </c>
       <c r="BI2">
-        <v>-0.06784839928150177</v>
+        <v>-0.06751568615436554</v>
       </c>
       <c r="BJ2">
-        <v>0.03376783803105354</v>
+        <v>0.03762601688504219</v>
       </c>
       <c r="BK2">
-        <v>0.007620556745678186</v>
+        <v>0.001551901921629906</v>
       </c>
       <c r="BL2">
-        <v>0.02890867367386818</v>
+        <v>0.03033016063272953</v>
       </c>
       <c r="BM2">
-        <v>0.08546912670135498</v>
+        <v>0.08252996951341629</v>
       </c>
       <c r="BN2">
-        <v>0.008439132943749428</v>
+        <v>0.009350800886750221</v>
       </c>
       <c r="BO2">
-        <v>0.05367392301559448</v>
+        <v>0.05520302429795265</v>
       </c>
       <c r="BP2">
-        <v>-0.03152994439005852</v>
+        <v>-0.03259896859526634</v>
       </c>
       <c r="BQ2">
-        <v>0.07747121900320053</v>
+        <v>0.07363149523735046</v>
       </c>
       <c r="BR2">
-        <v>0.003234671195968986</v>
+        <v>0.004636586643755436</v>
       </c>
       <c r="BS2">
-        <v>-0.01127430237829685</v>
+        <v>-0.007656997535377741</v>
       </c>
       <c r="BT2">
-        <v>0.0003818128898274153</v>
+        <v>-0.001108381082303822</v>
       </c>
       <c r="BU2">
-        <v>0.04266593605279922</v>
+        <v>0.04272343590855598</v>
       </c>
       <c r="BV2">
-        <v>-0.08241023123264313</v>
+        <v>-0.08070177584886551</v>
       </c>
       <c r="BW2">
-        <v>-0.004395976196974516</v>
+        <v>-0.005521217361092567</v>
       </c>
       <c r="BX2">
-        <v>0.02390951663255692</v>
+        <v>0.02995292656123638</v>
       </c>
       <c r="BY2">
-        <v>-0.01249438244849443</v>
+        <v>-0.01256588753312826</v>
       </c>
       <c r="BZ2">
-        <v>0.06637287884950638</v>
+        <v>0.06946165859699249</v>
       </c>
       <c r="CA2">
-        <v>0.02308348752558231</v>
+        <v>0.02077830769121647</v>
       </c>
       <c r="CB2">
-        <v>-0.06293806433677673</v>
+        <v>-0.0620364211499691</v>
       </c>
       <c r="CC2">
-        <v>-0.001783877029083669</v>
+        <v>-0.0009532356052659452</v>
       </c>
       <c r="CD2">
-        <v>0.0209333673119545</v>
+        <v>0.02174595929682255</v>
       </c>
       <c r="CE2">
-        <v>-0.03144918382167816</v>
+        <v>-0.03153480961918831</v>
       </c>
       <c r="CF2">
-        <v>-0.02821319177746773</v>
+        <v>-0.02495601400732994</v>
       </c>
       <c r="CG2">
-        <v>-0.04097940027713776</v>
+        <v>-0.03941908106207848</v>
       </c>
       <c r="CH2">
-        <v>0.01020981557667255</v>
+        <v>0.00989188626408577</v>
       </c>
       <c r="CI2">
-        <v>-0.02085431106388569</v>
+        <v>-0.02114828862249851</v>
       </c>
       <c r="CJ2">
-        <v>-0.06685871630907059</v>
+        <v>-0.06648501008749008</v>
       </c>
       <c r="CK2">
-        <v>0.02095159143209457</v>
+        <v>0.02103023417294025</v>
       </c>
       <c r="CL2">
-        <v>-0.002000696025788784</v>
+        <v>-0.0006996000302024186</v>
       </c>
       <c r="CM2">
-        <v>0.06817767769098282</v>
+        <v>0.06952487677335739</v>
       </c>
       <c r="CN2">
-        <v>0.01165373902767897</v>
+        <v>0.012722740881145</v>
       </c>
       <c r="CO2">
-        <v>0.002828220138326287</v>
+        <v>0.002877496415749192</v>
       </c>
       <c r="CP2">
-        <v>0.0954626128077507</v>
+        <v>0.0947987288236618</v>
       </c>
       <c r="CQ2">
-        <v>-0.03120870143175125</v>
+        <v>-0.03134986758232117</v>
       </c>
       <c r="CR2">
-        <v>0.001342068891972303</v>
+        <v>0.007018736097961664</v>
       </c>
       <c r="CS2">
-        <v>0.004853582475334406</v>
+        <v>0.004995154216885567</v>
       </c>
       <c r="CT2">
-        <v>-0.003895873669534922</v>
+        <v>-0.003015758469700813</v>
       </c>
       <c r="CU2">
-        <v>-0.0003640168870333582</v>
+        <v>-0.001204235944896936</v>
       </c>
       <c r="CV2">
-        <v>0.002169421408325434</v>
+        <v>0.003038808470591903</v>
       </c>
       <c r="CW2">
-        <v>-0.04314770549535751</v>
+        <v>-0.04686187580227852</v>
       </c>
       <c r="CX2">
-        <v>0.01375976670533419</v>
+        <v>0.01420990098267794</v>
       </c>
       <c r="CY2">
-        <v>0.00463789189234376</v>
+        <v>0.002809535479173064</v>
       </c>
       <c r="CZ2">
-        <v>0.003206725465133786</v>
+        <v>0.002595522673800588</v>
       </c>
       <c r="DA2">
-        <v>-0.06786641478538513</v>
+        <v>-0.06552591174840927</v>
       </c>
       <c r="DB2">
-        <v>0.001259332639165223</v>
+        <v>0.00463481992483139</v>
       </c>
       <c r="DC2">
-        <v>0.004182242322713137</v>
+        <v>0.004162533674389124</v>
       </c>
       <c r="DD2">
-        <v>-0.2190952897071838</v>
+        <v>-0.2154395431280136</v>
       </c>
       <c r="DE2">
-        <v>0.005650669801980257</v>
+        <v>0.005320523399859667</v>
       </c>
       <c r="DF2">
-        <v>-0.00529099814593792</v>
+        <v>-0.003158144420012832</v>
       </c>
       <c r="DG2">
-        <v>0.01616632752120495</v>
+        <v>0.0173224825412035</v>
       </c>
       <c r="DH2">
-        <v>0.1094463542103767</v>
+        <v>0.1095742657780647</v>
       </c>
       <c r="DI2">
-        <v>0.006143890786916018</v>
+        <v>0.004790781997144222</v>
       </c>
       <c r="DJ2">
-        <v>-0.01168269291520119</v>
+        <v>-0.01429456658661366</v>
       </c>
       <c r="DK2">
-        <v>-0.05344928056001663</v>
+        <v>-0.05076669901609421</v>
       </c>
       <c r="DL2">
-        <v>-0.09318429976701736</v>
+        <v>-0.09331064671278</v>
       </c>
       <c r="DM2">
-        <v>-0.001838308293372393</v>
+        <v>0.001154595287516713</v>
       </c>
       <c r="DN2">
-        <v>-0.1429854929447174</v>
+        <v>-0.1426293700933456</v>
       </c>
       <c r="DO2">
-        <v>0.04909020662307739</v>
+        <v>0.04918510839343071</v>
       </c>
       <c r="DP2">
-        <v>0.002281672786921263</v>
+        <v>0.0039092767983675</v>
       </c>
       <c r="DQ2">
-        <v>0.008726748637855053</v>
+        <v>0.009072908200323582</v>
       </c>
       <c r="DR2">
-        <v>0.01257094461470842</v>
+        <v>0.01195397693663836</v>
       </c>
       <c r="DS2">
-        <v>-0.0477418415248394</v>
+        <v>-0.04765835776925087</v>
       </c>
       <c r="DT2">
-        <v>-0.0003731120377779007</v>
+        <v>0.0002727766113821417</v>
       </c>
       <c r="DU2">
-        <v>0.05275759473443031</v>
+        <v>0.05384459719061852</v>
       </c>
       <c r="DV2">
-        <v>0.01366349775344133</v>
+        <v>0.01221540570259094</v>
       </c>
       <c r="DW2">
-        <v>-0.004897898528724909</v>
+        <v>-0.006395840551704168</v>
       </c>
       <c r="DX2">
-        <v>0.05326153337955475</v>
+        <v>0.0535077191889286</v>
       </c>
       <c r="DY2">
-        <v>-0.05057529732584953</v>
+        <v>-0.05080745369195938</v>
       </c>
       <c r="DZ2">
-        <v>0.0006871280493214726</v>
+        <v>-0.002965927124023438</v>
       </c>
       <c r="EA2">
-        <v>0.05401884391903877</v>
+        <v>0.05458583310246468</v>
       </c>
       <c r="EB2">
-        <v>-0.05794715881347656</v>
+        <v>-0.05762264505028725</v>
       </c>
       <c r="EC2">
-        <v>-0.001061518676578999</v>
+        <v>-0.00565551919862628</v>
       </c>
       <c r="ED2">
-        <v>-0.02611444890499115</v>
+        <v>-0.02613173983991146</v>
       </c>
       <c r="EE2">
-        <v>-0.0001670041820034385</v>
+        <v>0.0004425728693604469</v>
       </c>
       <c r="EF2">
-        <v>0.010543592274189</v>
+        <v>0.01176523789763451</v>
       </c>
       <c r="EG2">
-        <v>-0.02697077579796314</v>
+        <v>-0.02832913585007191</v>
       </c>
       <c r="EH2">
-        <v>-0.1195948868989944</v>
+        <v>-0.1153596937656403</v>
       </c>
       <c r="EI2">
-        <v>-0.02377154864370823</v>
+        <v>-0.0218768548220396</v>
       </c>
       <c r="EJ2">
-        <v>0.07280929386615753</v>
+        <v>0.07078585773706436</v>
       </c>
       <c r="EK2">
-        <v>-0.005358287133276463</v>
+        <v>-0.004332792013883591</v>
       </c>
       <c r="EL2">
-        <v>0.0008235538844019175</v>
+        <v>0.0009899031138047576</v>
       </c>
       <c r="EM2">
-        <v>0.008788479492068291</v>
+        <v>0.00887729786336422</v>
       </c>
       <c r="EN2">
-        <v>0.00665350491181016</v>
+        <v>0.006405902095139027</v>
       </c>
       <c r="EO2">
-        <v>-0.08776776492595673</v>
+        <v>-0.08662348240613937</v>
       </c>
       <c r="EP2">
-        <v>0.153247281908989</v>
+        <v>0.1561659723520279</v>
       </c>
       <c r="EQ2">
-        <v>0.06771336495876312</v>
+        <v>0.06804120540618896</v>
       </c>
       <c r="ER2">
-        <v>-0.001886142650619149</v>
+        <v>-0.002802374539896846</v>
       </c>
       <c r="ES2">
-        <v>0.02443420700728893</v>
+        <v>0.0276420246809721</v>
       </c>
       <c r="ET2">
-        <v>0.0613514743745327</v>
+        <v>0.06130863353610039</v>
       </c>
       <c r="EU2">
-        <v>0.01562194805592299</v>
+        <v>0.01639297604560852</v>
       </c>
       <c r="EV2">
-        <v>0.02144000120460987</v>
+        <v>0.02064850367605686</v>
       </c>
       <c r="EW2">
-        <v>-0.008545155636966228</v>
+        <v>-0.01062379777431488</v>
       </c>
       <c r="EX2">
-        <v>-0.1585868895053864</v>
+        <v>-0.1561823487281799</v>
       </c>
       <c r="EY2">
-        <v>-0.007477956358343363</v>
+        <v>-0.007902152836322784</v>
       </c>
       <c r="EZ2">
-        <v>-0.04626531526446342</v>
+        <v>-0.04643009975552559</v>
       </c>
       <c r="FA2">
-        <v>0.0115108760073781</v>
+        <v>0.01318889018148184</v>
       </c>
       <c r="FB2">
-        <v>-0.001889742910861969</v>
+        <v>-0.001989704556763172</v>
       </c>
       <c r="FC2">
-        <v>-0.1030466333031654</v>
+        <v>-0.1028267443180084</v>
       </c>
       <c r="FD2">
-        <v>0.00145750108640641</v>
+        <v>0.0005666892393492162</v>
       </c>
       <c r="FE2">
-        <v>-0.02897311560809612</v>
+        <v>-0.02833024598658085</v>
       </c>
       <c r="FF2">
-        <v>-0.1297942399978638</v>
+        <v>-0.13088458776474</v>
       </c>
       <c r="FG2">
-        <v>-0.1357644200325012</v>
+        <v>-0.1363926380872726</v>
       </c>
       <c r="FH2">
-        <v>0.004599749110639095</v>
+        <v>0.0007192619959823787</v>
       </c>
       <c r="FI2">
-        <v>-0.02514285035431385</v>
+        <v>-0.02498580142855644</v>
       </c>
       <c r="FJ2">
-        <v>0.002939593279734254</v>
+        <v>0.003384668612852693</v>
       </c>
       <c r="FK2">
-        <v>-0.06167793646454811</v>
+        <v>-0.06160122156143188</v>
       </c>
       <c r="FL2">
-        <v>0.03397136181592941</v>
+        <v>0.03326263278722763</v>
       </c>
       <c r="FM2">
-        <v>0.008309880271553993</v>
+        <v>0.009373885579407215</v>
       </c>
       <c r="FN2">
-        <v>-0.005881305783987045</v>
+        <v>-0.003833385184407234</v>
       </c>
       <c r="FO2">
-        <v>0.009913682006299496</v>
+        <v>0.006859270855784416</v>
       </c>
       <c r="FP2">
-        <v>0.01449551060795784</v>
+        <v>0.0108215669170022</v>
       </c>
       <c r="FQ2">
-        <v>0.003394162049517035</v>
+        <v>0.003829485503956676</v>
       </c>
       <c r="FR2">
-        <v>-0.0004932195297442377</v>
+        <v>-0.000581618573050946</v>
       </c>
       <c r="FS2">
-        <v>-0.001720312400721014</v>
+        <v>-0.0006068169022910297</v>
       </c>
       <c r="FT2">
-        <v>0.005230528768151999</v>
+        <v>0.005512683652341366</v>
       </c>
       <c r="FU2">
-        <v>0.1014179289340973</v>
+        <v>0.1015495136380196</v>
       </c>
       <c r="FV2">
-        <v>-0.07778109610080719</v>
+        <v>-0.07746394723653793</v>
       </c>
       <c r="FW2">
-        <v>0.05611792206764221</v>
+        <v>0.05683205276727676</v>
       </c>
       <c r="FX2">
-        <v>-0.00478831771761179</v>
+        <v>-0.008796557784080505</v>
       </c>
       <c r="FY2">
-        <v>0.004870729055255651</v>
+        <v>0.002737121656537056</v>
       </c>
       <c r="FZ2">
-        <v>0.002567374147474766</v>
+        <v>0.002891601528972387</v>
       </c>
       <c r="GA2">
-        <v>-0.009368481114506721</v>
+        <v>-0.007138294167816639</v>
       </c>
       <c r="GB2">
-        <v>0.01381263788789511</v>
+        <v>0.01226833183318377</v>
       </c>
       <c r="GC2">
-        <v>-0.08445050567388535</v>
+        <v>-0.08496667444705963</v>
       </c>
       <c r="GD2">
-        <v>0.05133485049009323</v>
+        <v>0.048928402364254</v>
       </c>
       <c r="GE2">
-        <v>0.005020228214561939</v>
+        <v>0.005038970615714788</v>
       </c>
       <c r="GF2">
-        <v>0.006140648387372494</v>
+        <v>0.01029973570257425</v>
       </c>
       <c r="GG2">
-        <v>-0.130723237991333</v>
+        <v>-0.1279975026845932</v>
       </c>
       <c r="GH2">
-        <v>-0.001592284301295877</v>
+        <v>0.002793446881696582</v>
       </c>
       <c r="GI2">
-        <v>0.04309534281492233</v>
+        <v>0.0403396300971508</v>
       </c>
       <c r="GJ2">
-        <v>-0.01704602502286434</v>
+        <v>-0.01423520501703024</v>
       </c>
       <c r="GK2">
-        <v>-0.05857624486088753</v>
+        <v>-0.05909424275159836</v>
       </c>
       <c r="GL2">
-        <v>-0.008795133791863918</v>
+        <v>-0.008245737291872501</v>
       </c>
       <c r="GM2">
-        <v>-0.1051822677254677</v>
+        <v>-0.1064236462116241</v>
       </c>
       <c r="GN2">
-        <v>0.07325080037117004</v>
+        <v>0.07387716323137283</v>
       </c>
       <c r="GO2">
-        <v>-0.05138985067605972</v>
+        <v>-0.05045881867408752</v>
       </c>
       <c r="GP2">
-        <v>0.001150171854533255</v>
+        <v>0.001810147543437779</v>
       </c>
       <c r="GQ2">
-        <v>0.00848953053355217</v>
+        <v>0.007656633853912354</v>
       </c>
       <c r="GR2">
-        <v>0.002844706643372774</v>
+        <v>0.003260469296947122</v>
       </c>
       <c r="GS2">
-        <v>-0.03103555925190449</v>
+        <v>-0.02900470606982708</v>
       </c>
       <c r="GT2">
-        <v>-0.00525842746719718</v>
+        <v>-0.008294620551168919</v>
       </c>
       <c r="GU2">
-        <v>0.01511967368423939</v>
+        <v>0.01453584898263216</v>
       </c>
       <c r="GV2">
-        <v>0.008531671948730946</v>
+        <v>0.009867025539278984</v>
       </c>
       <c r="GW2">
-        <v>-0.03920381516218185</v>
+        <v>-0.0409962423145771</v>
       </c>
       <c r="GX2">
-        <v>0.003576494986191392</v>
+        <v>0.004217016510665417</v>
       </c>
       <c r="GY2">
-        <v>0.0007375342538580298</v>
+        <v>0.0009538825252093375</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02572756446897984</v>
+        <v>0.02544409036636353</v>
       </c>
       <c r="C2">
-        <v>0.0344889871776104</v>
+        <v>0.0359841026365757</v>
       </c>
       <c r="D2">
-        <v>-0.05251887440681458</v>
+        <v>-0.05215325951576233</v>
       </c>
       <c r="E2">
-        <v>-0.05881147086620331</v>
+        <v>-0.0522453561425209</v>
       </c>
       <c r="F2">
-        <v>0.002672388218343258</v>
+        <v>0.0006488963263109326</v>
       </c>
       <c r="G2">
-        <v>-0.03637838363647461</v>
+        <v>-0.03791407868266106</v>
       </c>
       <c r="H2">
-        <v>0.01591475307941437</v>
+        <v>0.01557751838117838</v>
       </c>
       <c r="I2">
-        <v>0.003949971403926611</v>
+        <v>0.001310072839260101</v>
       </c>
       <c r="J2">
-        <v>0.1761315166950226</v>
+        <v>0.1675713509321213</v>
       </c>
       <c r="K2">
-        <v>0.008503326214849949</v>
+        <v>0.005813118536025286</v>
       </c>
       <c r="L2">
-        <v>0.003796412143856287</v>
+        <v>0.002608997747302055</v>
       </c>
       <c r="M2">
-        <v>0.01038649771362543</v>
+        <v>0.01354016084223986</v>
       </c>
       <c r="N2">
-        <v>-0.007612120360136032</v>
+        <v>0.002353053307160735</v>
       </c>
       <c r="O2">
-        <v>-0.06946589052677155</v>
+        <v>-0.06540451198816299</v>
       </c>
       <c r="P2">
-        <v>0.02367559634149075</v>
+        <v>0.02563846111297607</v>
       </c>
       <c r="Q2">
-        <v>-0.00397318322211504</v>
+        <v>-0.006554749328643084</v>
       </c>
       <c r="R2">
-        <v>-0.004853780381381512</v>
+        <v>-0.01521962322294712</v>
       </c>
       <c r="S2">
-        <v>0.09382934123277664</v>
+        <v>0.09754963219165802</v>
       </c>
       <c r="T2">
-        <v>0.06331263482570648</v>
+        <v>0.06164401024580002</v>
       </c>
       <c r="U2">
-        <v>0.09202492237091064</v>
+        <v>0.08698664605617523</v>
       </c>
       <c r="V2">
-        <v>-0.008885782212018967</v>
+        <v>-0.0054284050129354</v>
       </c>
       <c r="W2">
-        <v>-0.06905372440814972</v>
+        <v>-0.0719536617398262</v>
       </c>
       <c r="X2">
-        <v>0.0008380156941711903</v>
+        <v>0.003053319873288274</v>
       </c>
       <c r="Y2">
-        <v>0.08725312352180481</v>
+        <v>0.08679639548063278</v>
       </c>
       <c r="Z2">
-        <v>-0.08006846159696579</v>
+        <v>-0.08226315677165985</v>
       </c>
       <c r="AA2">
-        <v>0.002668131608515978</v>
+        <v>9.658679482527077E-05</v>
       </c>
       <c r="AB2">
-        <v>0.04589158669114113</v>
+        <v>0.05182935297489166</v>
       </c>
       <c r="AC2">
-        <v>0.07257808744907379</v>
+        <v>0.07247261703014374</v>
       </c>
       <c r="AD2">
-        <v>-0.07317300885915756</v>
+        <v>-0.07430160045623779</v>
       </c>
       <c r="AE2">
-        <v>-0.1160781905055046</v>
+        <v>-0.1125761196017265</v>
       </c>
       <c r="AF2">
-        <v>-0.01320173963904381</v>
+        <v>-0.01163039728999138</v>
       </c>
       <c r="AG2">
-        <v>-0.114078626036644</v>
+        <v>-0.1139427646994591</v>
       </c>
       <c r="AH2">
-        <v>0.06023697927594185</v>
+        <v>0.05429057404398918</v>
       </c>
       <c r="AI2">
-        <v>-0.04924970492720604</v>
+        <v>-0.05161935091018677</v>
       </c>
       <c r="AJ2">
-        <v>0.0009792727651074529</v>
+        <v>-0.003722139401361346</v>
       </c>
       <c r="AK2">
-        <v>-0.002237578621134162</v>
+        <v>-0.005651731975376606</v>
       </c>
       <c r="AL2">
-        <v>0.002324314787983894</v>
+        <v>-0.005054112989455462</v>
       </c>
       <c r="AM2">
-        <v>-0.02107485197484493</v>
+        <v>-0.01562885195016861</v>
       </c>
       <c r="AN2">
-        <v>-0.08913711458444595</v>
+        <v>-0.08906240016222</v>
       </c>
       <c r="AO2">
-        <v>-0.04863720759749413</v>
+        <v>-0.05042875185608864</v>
       </c>
       <c r="AP2">
-        <v>-0.1023141443729401</v>
+        <v>-0.102295383810997</v>
       </c>
       <c r="AQ2">
-        <v>0.004463998600840569</v>
+        <v>-0.0008616517297923565</v>
       </c>
       <c r="AR2">
-        <v>0.06574249267578125</v>
+        <v>0.06347221881151199</v>
       </c>
       <c r="AS2">
-        <v>-0.07174992561340332</v>
+        <v>-0.0700603649020195</v>
       </c>
       <c r="AT2">
-        <v>-0.03396396338939667</v>
+        <v>-0.04030425474047661</v>
       </c>
       <c r="AU2">
-        <v>0.01386105921119452</v>
+        <v>0.01873354986310005</v>
       </c>
       <c r="AV2">
-        <v>0.0268891416490078</v>
+        <v>0.02439913712441921</v>
       </c>
       <c r="AW2">
-        <v>0.003344948869198561</v>
+        <v>0.004934147000312805</v>
       </c>
       <c r="AX2">
-        <v>0.03376330807805061</v>
+        <v>0.0284413043409586</v>
       </c>
       <c r="AY2">
-        <v>-0.06850343197584152</v>
+        <v>-0.07153379172086716</v>
       </c>
       <c r="AZ2">
-        <v>-0.07701174914836884</v>
+        <v>-0.08061655610799789</v>
       </c>
       <c r="BA2">
-        <v>0.001040597562678158</v>
+        <v>-0.0008477622177451849</v>
       </c>
       <c r="BB2">
-        <v>-0.01288667134940624</v>
+        <v>-0.01777923293411732</v>
       </c>
       <c r="BC2">
-        <v>0.003309208899736404</v>
+        <v>0.002924278378486633</v>
       </c>
       <c r="BD2">
-        <v>0.1437568813562393</v>
+        <v>0.1421783268451691</v>
       </c>
       <c r="BE2">
-        <v>0.003838962176814675</v>
+        <v>-0.004433281254023314</v>
       </c>
       <c r="BF2">
-        <v>0.01846491359174252</v>
+        <v>0.01590890996158123</v>
       </c>
       <c r="BG2">
-        <v>0.09958963841199875</v>
+        <v>0.09806473553180695</v>
       </c>
       <c r="BH2">
-        <v>0.006407905835658312</v>
+        <v>-0.002071478171274066</v>
       </c>
       <c r="BI2">
-        <v>-0.06751568615436554</v>
+        <v>-0.0685851126909256</v>
       </c>
       <c r="BJ2">
-        <v>0.03762601688504219</v>
+        <v>0.03164486959576607</v>
       </c>
       <c r="BK2">
-        <v>0.001551901921629906</v>
+        <v>0.005065653938800097</v>
       </c>
       <c r="BL2">
-        <v>0.03033016063272953</v>
+        <v>0.03029742278158665</v>
       </c>
       <c r="BM2">
-        <v>0.08252996951341629</v>
+        <v>0.08325084298849106</v>
       </c>
       <c r="BN2">
-        <v>0.009350800886750221</v>
+        <v>0.005210894625633955</v>
       </c>
       <c r="BO2">
-        <v>0.05520302429795265</v>
+        <v>0.05311885476112366</v>
       </c>
       <c r="BP2">
-        <v>-0.03259896859526634</v>
+        <v>-0.02681682072579861</v>
       </c>
       <c r="BQ2">
-        <v>0.07363149523735046</v>
+        <v>0.07536792010068893</v>
       </c>
       <c r="BR2">
-        <v>0.004636586643755436</v>
+        <v>-0.0025582080706954</v>
       </c>
       <c r="BS2">
-        <v>-0.007656997535377741</v>
+        <v>-0.01104859169572592</v>
       </c>
       <c r="BT2">
-        <v>-0.001108381082303822</v>
+        <v>-0.002512939041480422</v>
       </c>
       <c r="BU2">
-        <v>0.04272343590855598</v>
+        <v>0.0422954373061657</v>
       </c>
       <c r="BV2">
-        <v>-0.08070177584886551</v>
+        <v>-0.07939060032367706</v>
       </c>
       <c r="BW2">
-        <v>-0.005521217361092567</v>
+        <v>0.002263275440782309</v>
       </c>
       <c r="BX2">
-        <v>0.02995292656123638</v>
+        <v>0.0198761448264122</v>
       </c>
       <c r="BY2">
-        <v>-0.01256588753312826</v>
+        <v>-0.01407376397401094</v>
       </c>
       <c r="BZ2">
-        <v>0.06946165859699249</v>
+        <v>0.06642809510231018</v>
       </c>
       <c r="CA2">
-        <v>0.02077830769121647</v>
+        <v>0.02479101717472076</v>
       </c>
       <c r="CB2">
-        <v>-0.0620364211499691</v>
+        <v>-0.06219623982906342</v>
       </c>
       <c r="CC2">
-        <v>-0.0009532356052659452</v>
+        <v>-0.00281916419044137</v>
       </c>
       <c r="CD2">
-        <v>0.02174595929682255</v>
+        <v>0.01899508759379387</v>
       </c>
       <c r="CE2">
-        <v>-0.03153480961918831</v>
+        <v>-0.03207513689994812</v>
       </c>
       <c r="CF2">
-        <v>-0.02495601400732994</v>
+        <v>-0.03093158639967442</v>
       </c>
       <c r="CG2">
-        <v>-0.03941908106207848</v>
+        <v>-0.04341982677578926</v>
       </c>
       <c r="CH2">
-        <v>0.00989188626408577</v>
+        <v>0.008782397024333477</v>
       </c>
       <c r="CI2">
-        <v>-0.02114828862249851</v>
+        <v>-0.02240052260458469</v>
       </c>
       <c r="CJ2">
-        <v>-0.06648501008749008</v>
+        <v>-0.0635157972574234</v>
       </c>
       <c r="CK2">
-        <v>0.02103023417294025</v>
+        <v>0.02018127031624317</v>
       </c>
       <c r="CL2">
-        <v>-0.0006996000302024186</v>
+        <v>-0.003686696290969849</v>
       </c>
       <c r="CM2">
-        <v>0.06952487677335739</v>
+        <v>0.06790278851985931</v>
       </c>
       <c r="CN2">
-        <v>0.012722740881145</v>
+        <v>0.008930804207921028</v>
       </c>
       <c r="CO2">
-        <v>0.002877496415749192</v>
+        <v>0.001661236048676074</v>
       </c>
       <c r="CP2">
-        <v>0.0947987288236618</v>
+        <v>0.09518714249134064</v>
       </c>
       <c r="CQ2">
-        <v>-0.03134986758232117</v>
+        <v>-0.02948754094541073</v>
       </c>
       <c r="CR2">
-        <v>0.007018736097961664</v>
+        <v>0.003578340401872993</v>
       </c>
       <c r="CS2">
-        <v>0.004995154216885567</v>
+        <v>0.001934146624989808</v>
       </c>
       <c r="CT2">
-        <v>-0.003015758469700813</v>
+        <v>-0.004963849671185017</v>
       </c>
       <c r="CU2">
-        <v>-0.001204235944896936</v>
+        <v>0.00175244256388396</v>
       </c>
       <c r="CV2">
-        <v>0.003038808470591903</v>
+        <v>0.007185706403106451</v>
       </c>
       <c r="CW2">
-        <v>-0.04686187580227852</v>
+        <v>-0.04458842799067497</v>
       </c>
       <c r="CX2">
-        <v>0.01420990098267794</v>
+        <v>0.01364812254905701</v>
       </c>
       <c r="CY2">
-        <v>0.002809535479173064</v>
+        <v>0.006724522914737463</v>
       </c>
       <c r="CZ2">
-        <v>0.002595522673800588</v>
+        <v>0.0009453680249862373</v>
       </c>
       <c r="DA2">
-        <v>-0.06552591174840927</v>
+        <v>-0.0696810781955719</v>
       </c>
       <c r="DB2">
-        <v>0.00463481992483139</v>
+        <v>-0.00189604889601469</v>
       </c>
       <c r="DC2">
-        <v>0.004162533674389124</v>
+        <v>-0.0001293707609875128</v>
       </c>
       <c r="DD2">
-        <v>-0.2154395431280136</v>
+        <v>-0.2259529083967209</v>
       </c>
       <c r="DE2">
-        <v>0.005320523399859667</v>
+        <v>0.002725972328335047</v>
       </c>
       <c r="DF2">
-        <v>-0.003158144420012832</v>
+        <v>-0.005528182722628117</v>
       </c>
       <c r="DG2">
-        <v>0.0173224825412035</v>
+        <v>0.01197214517742395</v>
       </c>
       <c r="DH2">
-        <v>0.1095742657780647</v>
+        <v>0.1078627556562424</v>
       </c>
       <c r="DI2">
-        <v>0.004790781997144222</v>
+        <v>0.007130891550332308</v>
       </c>
       <c r="DJ2">
-        <v>-0.01429456658661366</v>
+        <v>-0.01192248053848743</v>
       </c>
       <c r="DK2">
-        <v>-0.05076669901609421</v>
+        <v>-0.05078739300370216</v>
       </c>
       <c r="DL2">
-        <v>-0.09331064671278</v>
+        <v>-0.09431528300046921</v>
       </c>
       <c r="DM2">
-        <v>0.001154595287516713</v>
+        <v>-0.003294722177088261</v>
       </c>
       <c r="DN2">
-        <v>-0.1426293700933456</v>
+        <v>-0.1439747661352158</v>
       </c>
       <c r="DO2">
-        <v>0.04918510839343071</v>
+        <v>0.04821138828992844</v>
       </c>
       <c r="DP2">
-        <v>0.0039092767983675</v>
+        <v>0.003591806860640645</v>
       </c>
       <c r="DQ2">
-        <v>0.009072908200323582</v>
+        <v>0.006250443868339062</v>
       </c>
       <c r="DR2">
-        <v>0.01195397693663836</v>
+        <v>0.01285769790410995</v>
       </c>
       <c r="DS2">
-        <v>-0.04765835776925087</v>
+        <v>-0.04648014530539513</v>
       </c>
       <c r="DT2">
-        <v>0.0002727766113821417</v>
+        <v>-0.004449426662176847</v>
       </c>
       <c r="DU2">
-        <v>0.05384459719061852</v>
+        <v>0.05202190577983856</v>
       </c>
       <c r="DV2">
-        <v>0.01221540570259094</v>
+        <v>0.01517500262707472</v>
       </c>
       <c r="DW2">
-        <v>-0.006395840551704168</v>
+        <v>-0.003897970309481025</v>
       </c>
       <c r="DX2">
-        <v>0.0535077191889286</v>
+        <v>0.05234195664525032</v>
       </c>
       <c r="DY2">
-        <v>-0.05080745369195938</v>
+        <v>-0.04842111095786095</v>
       </c>
       <c r="DZ2">
-        <v>-0.002965927124023438</v>
+        <v>-0.001703260117210448</v>
       </c>
       <c r="EA2">
-        <v>0.05458583310246468</v>
+        <v>0.0574239119887352</v>
       </c>
       <c r="EB2">
-        <v>-0.05762264505028725</v>
+        <v>-0.05900293588638306</v>
       </c>
       <c r="EC2">
-        <v>-0.00565551919862628</v>
+        <v>-0.005389951169490814</v>
       </c>
       <c r="ED2">
-        <v>-0.02613173983991146</v>
+        <v>-0.02749414183199406</v>
       </c>
       <c r="EE2">
-        <v>0.0004425728693604469</v>
+        <v>-0.002402916317805648</v>
       </c>
       <c r="EF2">
-        <v>0.01176523789763451</v>
+        <v>0.008708912879228592</v>
       </c>
       <c r="EG2">
-        <v>-0.02832913585007191</v>
+        <v>-0.02085632644593716</v>
       </c>
       <c r="EH2">
-        <v>-0.1153596937656403</v>
+        <v>-0.1207574978470802</v>
       </c>
       <c r="EI2">
-        <v>-0.0218768548220396</v>
+        <v>-0.02371199801564217</v>
       </c>
       <c r="EJ2">
-        <v>0.07078585773706436</v>
+        <v>0.07313712686300278</v>
       </c>
       <c r="EK2">
-        <v>-0.004332792013883591</v>
+        <v>-0.007130370941013098</v>
       </c>
       <c r="EL2">
-        <v>0.0009899031138047576</v>
+        <v>0.0002982272708322853</v>
       </c>
       <c r="EM2">
-        <v>0.00887729786336422</v>
+        <v>0.01393861137330532</v>
       </c>
       <c r="EN2">
-        <v>0.006405902095139027</v>
+        <v>0.005523471627384424</v>
       </c>
       <c r="EO2">
-        <v>-0.08662348240613937</v>
+        <v>-0.09039805084466934</v>
       </c>
       <c r="EP2">
-        <v>0.1561659723520279</v>
+        <v>0.1517979949712753</v>
       </c>
       <c r="EQ2">
-        <v>0.06804120540618896</v>
+        <v>0.06579720228910446</v>
       </c>
       <c r="ER2">
-        <v>-0.002802374539896846</v>
+        <v>-0.0005081459530629218</v>
       </c>
       <c r="ES2">
-        <v>0.0276420246809721</v>
+        <v>0.0211663730442524</v>
       </c>
       <c r="ET2">
-        <v>0.06130863353610039</v>
+        <v>0.06208495423197746</v>
       </c>
       <c r="EU2">
-        <v>0.01639297604560852</v>
+        <v>0.0122312605381012</v>
       </c>
       <c r="EV2">
-        <v>0.02064850367605686</v>
+        <v>0.01864709705114365</v>
       </c>
       <c r="EW2">
-        <v>-0.01062379777431488</v>
+        <v>-0.008533523418009281</v>
       </c>
       <c r="EX2">
-        <v>-0.1561823487281799</v>
+        <v>-0.1582682132720947</v>
       </c>
       <c r="EY2">
-        <v>-0.007902152836322784</v>
+        <v>-0.008803314529359341</v>
       </c>
       <c r="EZ2">
-        <v>-0.04643009975552559</v>
+        <v>-0.04489566758275032</v>
       </c>
       <c r="FA2">
-        <v>0.01318889018148184</v>
+        <v>0.006100828759372234</v>
       </c>
       <c r="FB2">
-        <v>-0.001989704556763172</v>
+        <v>-0.004590838216245174</v>
       </c>
       <c r="FC2">
-        <v>-0.1028267443180084</v>
+        <v>-0.1043856889009476</v>
       </c>
       <c r="FD2">
-        <v>0.0005666892393492162</v>
+        <v>-0.001056388020515442</v>
       </c>
       <c r="FE2">
-        <v>-0.02833024598658085</v>
+        <v>-0.02811169996857643</v>
       </c>
       <c r="FF2">
-        <v>-0.13088458776474</v>
+        <v>-0.1312942802906036</v>
       </c>
       <c r="FG2">
-        <v>-0.1363926380872726</v>
+        <v>-0.1366780251264572</v>
       </c>
       <c r="FH2">
-        <v>0.0007192619959823787</v>
+        <v>0.004143617115914822</v>
       </c>
       <c r="FI2">
-        <v>-0.02498580142855644</v>
+        <v>-0.02633615210652351</v>
       </c>
       <c r="FJ2">
-        <v>0.003384668612852693</v>
+        <v>0.008376012556254864</v>
       </c>
       <c r="FK2">
-        <v>-0.06160122156143188</v>
+        <v>-0.06152401119470596</v>
       </c>
       <c r="FL2">
-        <v>0.03326263278722763</v>
+        <v>0.0388835184276104</v>
       </c>
       <c r="FM2">
-        <v>0.009373885579407215</v>
+        <v>0.01411425229161978</v>
       </c>
       <c r="FN2">
-        <v>-0.003833385184407234</v>
+        <v>-0.005618029739707708</v>
       </c>
       <c r="FO2">
-        <v>0.006859270855784416</v>
+        <v>0.01378794480115175</v>
       </c>
       <c r="FP2">
-        <v>0.0108215669170022</v>
+        <v>0.009741178713738918</v>
       </c>
       <c r="FQ2">
-        <v>0.003829485503956676</v>
+        <v>0.002691164845600724</v>
       </c>
       <c r="FR2">
-        <v>-0.000581618573050946</v>
+        <v>-0.002947873203083873</v>
       </c>
       <c r="FS2">
-        <v>-0.0006068169022910297</v>
+        <v>-0.003321481170132756</v>
       </c>
       <c r="FT2">
-        <v>0.005512683652341366</v>
+        <v>0.003435343969613314</v>
       </c>
       <c r="FU2">
-        <v>0.1015495136380196</v>
+        <v>0.1000012010335922</v>
       </c>
       <c r="FV2">
-        <v>-0.07746394723653793</v>
+        <v>-0.07825817167758942</v>
       </c>
       <c r="FW2">
-        <v>0.05683205276727676</v>
+        <v>0.05463198572397232</v>
       </c>
       <c r="FX2">
-        <v>-0.008796557784080505</v>
+        <v>-0.00266085029579699</v>
       </c>
       <c r="FY2">
-        <v>0.002737121656537056</v>
+        <v>0.009127079509198666</v>
       </c>
       <c r="FZ2">
-        <v>0.002891601528972387</v>
+        <v>0.002144745551049709</v>
       </c>
       <c r="GA2">
-        <v>-0.007138294167816639</v>
+        <v>-0.005846909247338772</v>
       </c>
       <c r="GB2">
-        <v>0.01226833183318377</v>
+        <v>0.01830348558723927</v>
       </c>
       <c r="GC2">
-        <v>-0.08496667444705963</v>
+        <v>-0.08579209446907043</v>
       </c>
       <c r="GD2">
-        <v>0.048928402364254</v>
+        <v>0.05127690359950066</v>
       </c>
       <c r="GE2">
-        <v>0.005038970615714788</v>
+        <v>0.004498460795730352</v>
       </c>
       <c r="GF2">
-        <v>0.01029973570257425</v>
+        <v>0.005857518408447504</v>
       </c>
       <c r="GG2">
-        <v>-0.1279975026845932</v>
+        <v>-0.1341320872306824</v>
       </c>
       <c r="GH2">
-        <v>0.002793446881696582</v>
+        <v>-0.005032793618738651</v>
       </c>
       <c r="GI2">
-        <v>0.0403396300971508</v>
+        <v>0.04466858506202698</v>
       </c>
       <c r="GJ2">
-        <v>-0.01423520501703024</v>
+        <v>-0.01119747944176197</v>
       </c>
       <c r="GK2">
-        <v>-0.05909424275159836</v>
+        <v>-0.05653802677989006</v>
       </c>
       <c r="GL2">
-        <v>-0.008245737291872501</v>
+        <v>-0.004664791282266378</v>
       </c>
       <c r="GM2">
-        <v>-0.1064236462116241</v>
+        <v>-0.1047515198588371</v>
       </c>
       <c r="GN2">
-        <v>0.07387716323137283</v>
+        <v>0.07129954546689987</v>
       </c>
       <c r="GO2">
-        <v>-0.05045881867408752</v>
+        <v>-0.0529274195432663</v>
       </c>
       <c r="GP2">
-        <v>0.001810147543437779</v>
+        <v>-0.0007815295248292387</v>
       </c>
       <c r="GQ2">
-        <v>0.007656633853912354</v>
+        <v>0.01089667808264494</v>
       </c>
       <c r="GR2">
-        <v>0.003260469296947122</v>
+        <v>0.00173193693626672</v>
       </c>
       <c r="GS2">
-        <v>-0.02900470606982708</v>
+        <v>-0.03200333565473557</v>
       </c>
       <c r="GT2">
-        <v>-0.008294620551168919</v>
+        <v>-0.0007677951361984015</v>
       </c>
       <c r="GU2">
-        <v>0.01453584898263216</v>
+        <v>0.01582605019211769</v>
       </c>
       <c r="GV2">
-        <v>0.009867025539278984</v>
+        <v>0.009915411472320557</v>
       </c>
       <c r="GW2">
-        <v>-0.0409962423145771</v>
+        <v>-0.036675825715065</v>
       </c>
       <c r="GX2">
-        <v>0.004217016510665417</v>
+        <v>0.0007458324544131756</v>
       </c>
       <c r="GY2">
-        <v>0.0009538825252093375</v>
+        <v>-0.000449114158982411</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02544409036636353</v>
+        <v>0.02590958401560783</v>
       </c>
       <c r="C2">
-        <v>0.0359841026365757</v>
+        <v>0.03336980938911438</v>
       </c>
       <c r="D2">
-        <v>-0.05215325951576233</v>
+        <v>-0.05330020189285278</v>
       </c>
       <c r="E2">
-        <v>-0.0522453561425209</v>
+        <v>-0.05339557677507401</v>
       </c>
       <c r="F2">
-        <v>0.0006488963263109326</v>
+        <v>-0.003542889608070254</v>
       </c>
       <c r="G2">
-        <v>-0.03791407868266106</v>
+        <v>-0.0371570885181427</v>
       </c>
       <c r="H2">
-        <v>0.01557751838117838</v>
+        <v>0.01590577140450478</v>
       </c>
       <c r="I2">
-        <v>0.001310072839260101</v>
+        <v>0.002671430818736553</v>
       </c>
       <c r="J2">
-        <v>0.1675713509321213</v>
+        <v>0.174120157957077</v>
       </c>
       <c r="K2">
-        <v>0.005813118536025286</v>
+        <v>0.0009224794339388609</v>
       </c>
       <c r="L2">
-        <v>0.002608997747302055</v>
+        <v>0.002086705295369029</v>
       </c>
       <c r="M2">
-        <v>0.01354016084223986</v>
+        <v>0.01207561045885086</v>
       </c>
       <c r="N2">
-        <v>0.002353053307160735</v>
+        <v>-0.0001022001597448252</v>
       </c>
       <c r="O2">
-        <v>-0.06540451198816299</v>
+        <v>-0.06367985159158707</v>
       </c>
       <c r="P2">
-        <v>0.02563846111297607</v>
+        <v>0.02285169996321201</v>
       </c>
       <c r="Q2">
-        <v>-0.006554749328643084</v>
+        <v>-0.009720216505229473</v>
       </c>
       <c r="R2">
-        <v>-0.01521962322294712</v>
+        <v>-0.008736851625144482</v>
       </c>
       <c r="S2">
-        <v>0.09754963219165802</v>
+        <v>0.1063337326049805</v>
       </c>
       <c r="T2">
-        <v>0.06164401024580002</v>
+        <v>0.06182472407817841</v>
       </c>
       <c r="U2">
-        <v>0.08698664605617523</v>
+        <v>0.09089917689561844</v>
       </c>
       <c r="V2">
-        <v>-0.0054284050129354</v>
+        <v>0.007318818476051092</v>
       </c>
       <c r="W2">
-        <v>-0.0719536617398262</v>
+        <v>-0.07541289180517197</v>
       </c>
       <c r="X2">
-        <v>0.003053319873288274</v>
+        <v>0.001107084332033992</v>
       </c>
       <c r="Y2">
-        <v>0.08679639548063278</v>
+        <v>0.08412005752325058</v>
       </c>
       <c r="Z2">
-        <v>-0.08226315677165985</v>
+        <v>-0.08161238580942154</v>
       </c>
       <c r="AA2">
-        <v>9.658679482527077E-05</v>
+        <v>0.001714687678031623</v>
       </c>
       <c r="AB2">
-        <v>0.05182935297489166</v>
+        <v>0.04625024273991585</v>
       </c>
       <c r="AC2">
-        <v>0.07247261703014374</v>
+        <v>0.07125528156757355</v>
       </c>
       <c r="AD2">
-        <v>-0.07430160045623779</v>
+        <v>-0.07371674478054047</v>
       </c>
       <c r="AE2">
-        <v>-0.1125761196017265</v>
+        <v>-0.1197959184646606</v>
       </c>
       <c r="AF2">
-        <v>-0.01163039728999138</v>
+        <v>-0.01220504846423864</v>
       </c>
       <c r="AG2">
-        <v>-0.1139427646994591</v>
+        <v>-0.1126571893692017</v>
       </c>
       <c r="AH2">
-        <v>0.05429057404398918</v>
+        <v>0.05347331613302231</v>
       </c>
       <c r="AI2">
-        <v>-0.05161935091018677</v>
+        <v>-0.05963325873017311</v>
       </c>
       <c r="AJ2">
-        <v>-0.003722139401361346</v>
+        <v>-0.01361455116420984</v>
       </c>
       <c r="AK2">
-        <v>-0.005651731975376606</v>
+        <v>-0.005884571466594934</v>
       </c>
       <c r="AL2">
-        <v>-0.005054112989455462</v>
+        <v>0.00117912981659174</v>
       </c>
       <c r="AM2">
-        <v>-0.01562885195016861</v>
+        <v>-0.02059777639806271</v>
       </c>
       <c r="AN2">
-        <v>-0.08906240016222</v>
+        <v>-0.0900055393576622</v>
       </c>
       <c r="AO2">
-        <v>-0.05042875185608864</v>
+        <v>-0.05185012519359589</v>
       </c>
       <c r="AP2">
-        <v>-0.102295383810997</v>
+        <v>-0.1006678715348244</v>
       </c>
       <c r="AQ2">
-        <v>-0.0008616517297923565</v>
+        <v>-0.003343843854963779</v>
       </c>
       <c r="AR2">
-        <v>0.06347221881151199</v>
+        <v>0.06349994987249374</v>
       </c>
       <c r="AS2">
-        <v>-0.0700603649020195</v>
+        <v>-0.0678182914853096</v>
       </c>
       <c r="AT2">
-        <v>-0.04030425474047661</v>
+        <v>-0.04119827225804329</v>
       </c>
       <c r="AU2">
-        <v>0.01873354986310005</v>
+        <v>0.01333467569202185</v>
       </c>
       <c r="AV2">
-        <v>0.02439913712441921</v>
+        <v>0.02536709606647491</v>
       </c>
       <c r="AW2">
-        <v>0.004934147000312805</v>
+        <v>0.004505200777202845</v>
       </c>
       <c r="AX2">
-        <v>0.0284413043409586</v>
+        <v>0.02841139957308769</v>
       </c>
       <c r="AY2">
-        <v>-0.07153379172086716</v>
+        <v>-0.07150557637214661</v>
       </c>
       <c r="AZ2">
-        <v>-0.08061655610799789</v>
+        <v>-0.08620375394821167</v>
       </c>
       <c r="BA2">
-        <v>-0.0008477622177451849</v>
+        <v>-0.003430838463827968</v>
       </c>
       <c r="BB2">
-        <v>-0.01777923293411732</v>
+        <v>-0.01940347440540791</v>
       </c>
       <c r="BC2">
-        <v>0.002924278378486633</v>
+        <v>0.004185090307146311</v>
       </c>
       <c r="BD2">
-        <v>0.1421783268451691</v>
+        <v>0.1427760422229767</v>
       </c>
       <c r="BE2">
-        <v>-0.004433281254023314</v>
+        <v>-0.00938704889267683</v>
       </c>
       <c r="BF2">
-        <v>0.01590890996158123</v>
+        <v>0.01336238067597151</v>
       </c>
       <c r="BG2">
-        <v>0.09806473553180695</v>
+        <v>0.0983889177441597</v>
       </c>
       <c r="BH2">
-        <v>-0.002071478171274066</v>
+        <v>-0.002424673177301884</v>
       </c>
       <c r="BI2">
-        <v>-0.0685851126909256</v>
+        <v>-0.06836123019456863</v>
       </c>
       <c r="BJ2">
-        <v>0.03164486959576607</v>
+        <v>0.02850734069943428</v>
       </c>
       <c r="BK2">
-        <v>0.005065653938800097</v>
+        <v>0.002441533375531435</v>
       </c>
       <c r="BL2">
-        <v>0.03029742278158665</v>
+        <v>0.03058273904025555</v>
       </c>
       <c r="BM2">
-        <v>0.08325084298849106</v>
+        <v>0.08564013242721558</v>
       </c>
       <c r="BN2">
-        <v>0.005210894625633955</v>
+        <v>0.002552052494138479</v>
       </c>
       <c r="BO2">
-        <v>0.05311885476112366</v>
+        <v>0.05306495726108551</v>
       </c>
       <c r="BP2">
-        <v>-0.02681682072579861</v>
+        <v>-0.02911278791725636</v>
       </c>
       <c r="BQ2">
-        <v>0.07536792010068893</v>
+        <v>0.07850712537765503</v>
       </c>
       <c r="BR2">
-        <v>-0.0025582080706954</v>
+        <v>0.000643594132270664</v>
       </c>
       <c r="BS2">
-        <v>-0.01104859169572592</v>
+        <v>-0.008737408556044102</v>
       </c>
       <c r="BT2">
-        <v>-0.002512939041480422</v>
+        <v>-0.002122083678841591</v>
       </c>
       <c r="BU2">
-        <v>0.0422954373061657</v>
+        <v>0.04161272943019867</v>
       </c>
       <c r="BV2">
-        <v>-0.07939060032367706</v>
+        <v>-0.08183323591947556</v>
       </c>
       <c r="BW2">
-        <v>0.002263275440782309</v>
+        <v>0.003376561449840665</v>
       </c>
       <c r="BX2">
-        <v>0.0198761448264122</v>
+        <v>0.02490429393947124</v>
       </c>
       <c r="BY2">
-        <v>-0.01407376397401094</v>
+        <v>-0.0120162321254611</v>
       </c>
       <c r="BZ2">
-        <v>0.06642809510231018</v>
+        <v>0.069095179438591</v>
       </c>
       <c r="CA2">
-        <v>0.02479101717472076</v>
+        <v>0.02279296889901161</v>
       </c>
       <c r="CB2">
-        <v>-0.06219623982906342</v>
+        <v>-0.06320832669734955</v>
       </c>
       <c r="CC2">
-        <v>-0.00281916419044137</v>
+        <v>-0.00230485899373889</v>
       </c>
       <c r="CD2">
-        <v>0.01899508759379387</v>
+        <v>0.01806642115116119</v>
       </c>
       <c r="CE2">
-        <v>-0.03207513689994812</v>
+        <v>-0.031441830098629</v>
       </c>
       <c r="CF2">
-        <v>-0.03093158639967442</v>
+        <v>-0.02945618703961372</v>
       </c>
       <c r="CG2">
-        <v>-0.04341982677578926</v>
+        <v>-0.04143992438912392</v>
       </c>
       <c r="CH2">
-        <v>0.008782397024333477</v>
+        <v>0.01343960501253605</v>
       </c>
       <c r="CI2">
-        <v>-0.02240052260458469</v>
+        <v>-0.02225143648684025</v>
       </c>
       <c r="CJ2">
-        <v>-0.0635157972574234</v>
+        <v>-0.06218011304736137</v>
       </c>
       <c r="CK2">
-        <v>0.02018127031624317</v>
+        <v>0.01909526810050011</v>
       </c>
       <c r="CL2">
-        <v>-0.003686696290969849</v>
+        <v>-0.00248109083622694</v>
       </c>
       <c r="CM2">
-        <v>0.06790278851985931</v>
+        <v>0.06689467281103134</v>
       </c>
       <c r="CN2">
-        <v>0.008930804207921028</v>
+        <v>0.01488443091511726</v>
       </c>
       <c r="CO2">
-        <v>0.001661236048676074</v>
+        <v>0.001537074334919453</v>
       </c>
       <c r="CP2">
-        <v>0.09518714249134064</v>
+        <v>0.09469854831695557</v>
       </c>
       <c r="CQ2">
-        <v>-0.02948754094541073</v>
+        <v>-0.03049864247441292</v>
       </c>
       <c r="CR2">
-        <v>0.003578340401872993</v>
+        <v>0.01033593155443668</v>
       </c>
       <c r="CS2">
-        <v>0.001934146624989808</v>
+        <v>0.002291827229782939</v>
       </c>
       <c r="CT2">
-        <v>-0.004963849671185017</v>
+        <v>-0.004451699554920197</v>
       </c>
       <c r="CU2">
-        <v>0.00175244256388396</v>
+        <v>0.0009587747044861317</v>
       </c>
       <c r="CV2">
-        <v>0.007185706403106451</v>
+        <v>0.01080918684601784</v>
       </c>
       <c r="CW2">
-        <v>-0.04458842799067497</v>
+        <v>-0.04391025006771088</v>
       </c>
       <c r="CX2">
-        <v>0.01364812254905701</v>
+        <v>0.009024678729474545</v>
       </c>
       <c r="CY2">
-        <v>0.006724522914737463</v>
+        <v>0.00455400999635458</v>
       </c>
       <c r="CZ2">
-        <v>0.0009453680249862373</v>
+        <v>0.001945870229974389</v>
       </c>
       <c r="DA2">
-        <v>-0.0696810781955719</v>
+        <v>-0.07070972770452499</v>
       </c>
       <c r="DB2">
-        <v>-0.00189604889601469</v>
+        <v>-0.0009461107547394931</v>
       </c>
       <c r="DC2">
-        <v>-0.0001293707609875128</v>
+        <v>0.001170567120425403</v>
       </c>
       <c r="DD2">
-        <v>-0.2259529083967209</v>
+        <v>-0.2198095619678497</v>
       </c>
       <c r="DE2">
-        <v>0.002725972328335047</v>
+        <v>0.003117890097200871</v>
       </c>
       <c r="DF2">
-        <v>-0.005528182722628117</v>
+        <v>-0.003719819942489266</v>
       </c>
       <c r="DG2">
-        <v>0.01197214517742395</v>
+        <v>0.009473140351474285</v>
       </c>
       <c r="DH2">
-        <v>0.1078627556562424</v>
+        <v>0.1045903712511063</v>
       </c>
       <c r="DI2">
-        <v>0.007130891550332308</v>
+        <v>0.00822821632027626</v>
       </c>
       <c r="DJ2">
-        <v>-0.01192248053848743</v>
+        <v>-0.01051151007413864</v>
       </c>
       <c r="DK2">
-        <v>-0.05078739300370216</v>
+        <v>-0.04966859146952629</v>
       </c>
       <c r="DL2">
-        <v>-0.09431528300046921</v>
+        <v>-0.09187376499176025</v>
       </c>
       <c r="DM2">
-        <v>-0.003294722177088261</v>
+        <v>-0.005163388792425394</v>
       </c>
       <c r="DN2">
-        <v>-0.1439747661352158</v>
+        <v>-0.1435979753732681</v>
       </c>
       <c r="DO2">
-        <v>0.04821138828992844</v>
+        <v>0.04440172016620636</v>
       </c>
       <c r="DP2">
-        <v>0.003591806860640645</v>
+        <v>0.004120789933949709</v>
       </c>
       <c r="DQ2">
-        <v>0.006250443868339062</v>
+        <v>0.00699545256793499</v>
       </c>
       <c r="DR2">
-        <v>0.01285769790410995</v>
+        <v>0.01351745706051588</v>
       </c>
       <c r="DS2">
-        <v>-0.04648014530539513</v>
+        <v>-0.04926208779215813</v>
       </c>
       <c r="DT2">
-        <v>-0.004449426662176847</v>
+        <v>-0.007194676902145147</v>
       </c>
       <c r="DU2">
-        <v>0.05202190577983856</v>
+        <v>0.05188758671283722</v>
       </c>
       <c r="DV2">
-        <v>0.01517500262707472</v>
+        <v>0.01254370994865894</v>
       </c>
       <c r="DW2">
-        <v>-0.003897970309481025</v>
+        <v>-0.002059257822111249</v>
       </c>
       <c r="DX2">
-        <v>0.05234195664525032</v>
+        <v>0.05328428372740746</v>
       </c>
       <c r="DY2">
-        <v>-0.04842111095786095</v>
+        <v>-0.04910274595022202</v>
       </c>
       <c r="DZ2">
-        <v>-0.001703260117210448</v>
+        <v>-0.005080710165202618</v>
       </c>
       <c r="EA2">
-        <v>0.0574239119887352</v>
+        <v>0.05758088082075119</v>
       </c>
       <c r="EB2">
-        <v>-0.05900293588638306</v>
+        <v>-0.05793866142630577</v>
       </c>
       <c r="EC2">
-        <v>-0.005389951169490814</v>
+        <v>-0.002202922478318214</v>
       </c>
       <c r="ED2">
-        <v>-0.02749414183199406</v>
+        <v>-0.02747689746320248</v>
       </c>
       <c r="EE2">
-        <v>-0.002402916317805648</v>
+        <v>-0.002358638215810061</v>
       </c>
       <c r="EF2">
-        <v>0.008708912879228592</v>
+        <v>0.008152979426085949</v>
       </c>
       <c r="EG2">
-        <v>-0.02085632644593716</v>
+        <v>-0.02894913963973522</v>
       </c>
       <c r="EH2">
-        <v>-0.1207574978470802</v>
+        <v>-0.1183258518576622</v>
       </c>
       <c r="EI2">
-        <v>-0.02371199801564217</v>
+        <v>-0.02320594899356365</v>
       </c>
       <c r="EJ2">
-        <v>0.07313712686300278</v>
+        <v>0.07273233681917191</v>
       </c>
       <c r="EK2">
-        <v>-0.007130370941013098</v>
+        <v>-0.005424338392913342</v>
       </c>
       <c r="EL2">
-        <v>0.0002982272708322853</v>
+        <v>-7.180708053056151E-05</v>
       </c>
       <c r="EM2">
-        <v>0.01393861137330532</v>
+        <v>0.01384526770561934</v>
       </c>
       <c r="EN2">
-        <v>0.005523471627384424</v>
+        <v>0.007261502090841532</v>
       </c>
       <c r="EO2">
-        <v>-0.09039805084466934</v>
+        <v>-0.0879708006978035</v>
       </c>
       <c r="EP2">
-        <v>0.1517979949712753</v>
+        <v>0.1507498174905777</v>
       </c>
       <c r="EQ2">
-        <v>0.06579720228910446</v>
+        <v>0.06489982455968857</v>
       </c>
       <c r="ER2">
-        <v>-0.0005081459530629218</v>
+        <v>-0.0009123630588874221</v>
       </c>
       <c r="ES2">
-        <v>0.0211663730442524</v>
+        <v>0.01974738948047161</v>
       </c>
       <c r="ET2">
-        <v>0.06208495423197746</v>
+        <v>0.05839533731341362</v>
       </c>
       <c r="EU2">
-        <v>0.0122312605381012</v>
+        <v>0.01021519955247641</v>
       </c>
       <c r="EV2">
-        <v>0.01864709705114365</v>
+        <v>0.01628807187080383</v>
       </c>
       <c r="EW2">
-        <v>-0.008533523418009281</v>
+        <v>-0.008175811730325222</v>
       </c>
       <c r="EX2">
-        <v>-0.1582682132720947</v>
+        <v>-0.1622938215732574</v>
       </c>
       <c r="EY2">
-        <v>-0.008803314529359341</v>
+        <v>-0.007420416921377182</v>
       </c>
       <c r="EZ2">
-        <v>-0.04489566758275032</v>
+        <v>-0.04460543766617775</v>
       </c>
       <c r="FA2">
-        <v>0.006100828759372234</v>
+        <v>0.01049751788377762</v>
       </c>
       <c r="FB2">
-        <v>-0.004590838216245174</v>
+        <v>-0.003794212127104402</v>
       </c>
       <c r="FC2">
-        <v>-0.1043856889009476</v>
+        <v>-0.106348380446434</v>
       </c>
       <c r="FD2">
-        <v>-0.001056388020515442</v>
+        <v>1.618815622350667E-05</v>
       </c>
       <c r="FE2">
-        <v>-0.02811169996857643</v>
+        <v>-0.03065486252307892</v>
       </c>
       <c r="FF2">
-        <v>-0.1312942802906036</v>
+        <v>-0.1297706663608551</v>
       </c>
       <c r="FG2">
-        <v>-0.1366780251264572</v>
+        <v>-0.1323435455560684</v>
       </c>
       <c r="FH2">
-        <v>0.004143617115914822</v>
+        <v>0.0001268959458684549</v>
       </c>
       <c r="FI2">
-        <v>-0.02633615210652351</v>
+        <v>-0.02975080534815788</v>
       </c>
       <c r="FJ2">
-        <v>0.008376012556254864</v>
+        <v>0.008088164031505585</v>
       </c>
       <c r="FK2">
-        <v>-0.06152401119470596</v>
+        <v>-0.06081201508641243</v>
       </c>
       <c r="FL2">
-        <v>0.0388835184276104</v>
+        <v>0.03624184057116508</v>
       </c>
       <c r="FM2">
-        <v>0.01411425229161978</v>
+        <v>0.01330408453941345</v>
       </c>
       <c r="FN2">
-        <v>-0.005618029739707708</v>
+        <v>-0.005083481315523386</v>
       </c>
       <c r="FO2">
-        <v>0.01378794480115175</v>
+        <v>0.0182194896042347</v>
       </c>
       <c r="FP2">
-        <v>0.009741178713738918</v>
+        <v>0.01492956280708313</v>
       </c>
       <c r="FQ2">
-        <v>0.002691164845600724</v>
+        <v>0.002654568990692496</v>
       </c>
       <c r="FR2">
-        <v>-0.002947873203083873</v>
+        <v>-0.002117389813065529</v>
       </c>
       <c r="FS2">
-        <v>-0.003321481170132756</v>
+        <v>-0.00218049087561667</v>
       </c>
       <c r="FT2">
-        <v>0.003435343969613314</v>
+        <v>0.00353368790820241</v>
       </c>
       <c r="FU2">
-        <v>0.1000012010335922</v>
+        <v>0.1004220023751259</v>
       </c>
       <c r="FV2">
-        <v>-0.07825817167758942</v>
+        <v>-0.07944277673959732</v>
       </c>
       <c r="FW2">
-        <v>0.05463198572397232</v>
+        <v>0.05579396709799767</v>
       </c>
       <c r="FX2">
-        <v>-0.00266085029579699</v>
+        <v>-0.006964016705751419</v>
       </c>
       <c r="FY2">
-        <v>0.009127079509198666</v>
+        <v>0.01343913283199072</v>
       </c>
       <c r="FZ2">
-        <v>0.002144745551049709</v>
+        <v>0.003369512502104044</v>
       </c>
       <c r="GA2">
-        <v>-0.005846909247338772</v>
+        <v>-0.003796383738517761</v>
       </c>
       <c r="GB2">
-        <v>0.01830348558723927</v>
+        <v>0.01487803366035223</v>
       </c>
       <c r="GC2">
-        <v>-0.08579209446907043</v>
+        <v>-0.08382271230220795</v>
       </c>
       <c r="GD2">
-        <v>0.05127690359950066</v>
+        <v>0.05792367085814476</v>
       </c>
       <c r="GE2">
-        <v>0.004498460795730352</v>
+        <v>0.004207966383546591</v>
       </c>
       <c r="GF2">
-        <v>0.005857518408447504</v>
+        <v>0.00701176468282938</v>
       </c>
       <c r="GG2">
-        <v>-0.1341320872306824</v>
+        <v>-0.13409823179245</v>
       </c>
       <c r="GH2">
-        <v>-0.005032793618738651</v>
+        <v>-0.003908941056579351</v>
       </c>
       <c r="GI2">
-        <v>0.04466858506202698</v>
+        <v>0.0427519828081131</v>
       </c>
       <c r="GJ2">
-        <v>-0.01119747944176197</v>
+        <v>-0.007470459211617708</v>
       </c>
       <c r="GK2">
-        <v>-0.05653802677989006</v>
+        <v>-0.04881682246923447</v>
       </c>
       <c r="GL2">
-        <v>-0.004664791282266378</v>
+        <v>-0.003728223964571953</v>
       </c>
       <c r="GM2">
-        <v>-0.1047515198588371</v>
+        <v>-0.1078239977359772</v>
       </c>
       <c r="GN2">
-        <v>0.07129954546689987</v>
+        <v>0.06830472499132156</v>
       </c>
       <c r="GO2">
-        <v>-0.0529274195432663</v>
+        <v>-0.05580837279558182</v>
       </c>
       <c r="GP2">
-        <v>-0.0007815295248292387</v>
+        <v>0.000262010406004265</v>
       </c>
       <c r="GQ2">
-        <v>0.01089667808264494</v>
+        <v>0.01211843173950911</v>
       </c>
       <c r="GR2">
-        <v>0.00173193693626672</v>
+        <v>0.003406534669920802</v>
       </c>
       <c r="GS2">
-        <v>-0.03200333565473557</v>
+        <v>-0.03032494522631168</v>
       </c>
       <c r="GT2">
-        <v>-0.0007677951361984015</v>
+        <v>0.003364832140505314</v>
       </c>
       <c r="GU2">
-        <v>0.01582605019211769</v>
+        <v>0.01630250364542007</v>
       </c>
       <c r="GV2">
-        <v>0.009915411472320557</v>
+        <v>0.003135542618110776</v>
       </c>
       <c r="GW2">
-        <v>-0.036675825715065</v>
+        <v>-0.03906731680035591</v>
       </c>
       <c r="GX2">
-        <v>0.0007458324544131756</v>
+        <v>0.003026848658919334</v>
       </c>
       <c r="GY2">
-        <v>-0.000449114158982411</v>
+        <v>0.0001978843502001837</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02590958401560783</v>
+        <v>0.02126475982367992</v>
       </c>
       <c r="C2">
-        <v>0.03336980938911438</v>
+        <v>0.03749040141701698</v>
       </c>
       <c r="D2">
-        <v>-0.05330020189285278</v>
+        <v>-0.05484538525342941</v>
       </c>
       <c r="E2">
-        <v>-0.05339557677507401</v>
+        <v>-0.0554833710193634</v>
       </c>
       <c r="F2">
-        <v>-0.003542889608070254</v>
+        <v>-0.00727363582700491</v>
       </c>
       <c r="G2">
-        <v>-0.0371570885181427</v>
+        <v>-0.03128156810998917</v>
       </c>
       <c r="H2">
-        <v>0.01590577140450478</v>
+        <v>0.01159093901515007</v>
       </c>
       <c r="I2">
-        <v>0.002671430818736553</v>
+        <v>0.003097824519500136</v>
       </c>
       <c r="J2">
-        <v>0.174120157957077</v>
+        <v>0.1665508598089218</v>
       </c>
       <c r="K2">
-        <v>0.0009224794339388609</v>
+        <v>0.006799445021897554</v>
       </c>
       <c r="L2">
-        <v>0.002086705295369029</v>
+        <v>0.003472187090665102</v>
       </c>
       <c r="M2">
-        <v>0.01207561045885086</v>
+        <v>0.01475353445857763</v>
       </c>
       <c r="N2">
-        <v>-0.0001022001597448252</v>
+        <v>0.005839988123625517</v>
       </c>
       <c r="O2">
-        <v>-0.06367985159158707</v>
+        <v>-0.06058451533317566</v>
       </c>
       <c r="P2">
-        <v>0.02285169996321201</v>
+        <v>0.02990051545202732</v>
       </c>
       <c r="Q2">
-        <v>-0.009720216505229473</v>
+        <v>-0.001238719676621258</v>
       </c>
       <c r="R2">
-        <v>-0.008736851625144482</v>
+        <v>0.0030087826307863</v>
       </c>
       <c r="S2">
-        <v>0.1063337326049805</v>
+        <v>0.1043213680386543</v>
       </c>
       <c r="T2">
-        <v>0.06182472407817841</v>
+        <v>0.0648171454668045</v>
       </c>
       <c r="U2">
-        <v>0.09089917689561844</v>
+        <v>0.09411557763814926</v>
       </c>
       <c r="V2">
-        <v>0.007318818476051092</v>
+        <v>0.006312311161309481</v>
       </c>
       <c r="W2">
-        <v>-0.07541289180517197</v>
+        <v>-0.07976143807172775</v>
       </c>
       <c r="X2">
-        <v>0.001107084332033992</v>
+        <v>0.004095131531357765</v>
       </c>
       <c r="Y2">
-        <v>0.08412005752325058</v>
+        <v>0.086093470454216</v>
       </c>
       <c r="Z2">
-        <v>-0.08161238580942154</v>
+        <v>-0.08078133314847946</v>
       </c>
       <c r="AA2">
-        <v>0.001714687678031623</v>
+        <v>-0.00282137212343514</v>
       </c>
       <c r="AB2">
-        <v>0.04625024273991585</v>
+        <v>0.03893284127116203</v>
       </c>
       <c r="AC2">
-        <v>0.07125528156757355</v>
+        <v>0.07161517441272736</v>
       </c>
       <c r="AD2">
-        <v>-0.07371674478054047</v>
+        <v>-0.07212353497743607</v>
       </c>
       <c r="AE2">
-        <v>-0.1197959184646606</v>
+        <v>-0.1238487958908081</v>
       </c>
       <c r="AF2">
-        <v>-0.01220504846423864</v>
+        <v>-0.01150050386786461</v>
       </c>
       <c r="AG2">
-        <v>-0.1126571893692017</v>
+        <v>-0.1040020957589149</v>
       </c>
       <c r="AH2">
-        <v>0.05347331613302231</v>
+        <v>0.04699911549687386</v>
       </c>
       <c r="AI2">
-        <v>-0.05963325873017311</v>
+        <v>-0.06282216310501099</v>
       </c>
       <c r="AJ2">
-        <v>-0.01361455116420984</v>
+        <v>-0.009506151080131531</v>
       </c>
       <c r="AK2">
-        <v>-0.005884571466594934</v>
+        <v>-0.0005526752211153507</v>
       </c>
       <c r="AL2">
-        <v>0.00117912981659174</v>
+        <v>0.001394897582940757</v>
       </c>
       <c r="AM2">
-        <v>-0.02059777639806271</v>
+        <v>-0.01457576360553503</v>
       </c>
       <c r="AN2">
-        <v>-0.0900055393576622</v>
+        <v>-0.09632129967212677</v>
       </c>
       <c r="AO2">
-        <v>-0.05185012519359589</v>
+        <v>-0.05028501525521278</v>
       </c>
       <c r="AP2">
-        <v>-0.1006678715348244</v>
+        <v>-0.09937773644924164</v>
       </c>
       <c r="AQ2">
-        <v>-0.003343843854963779</v>
+        <v>-0.00619947537779808</v>
       </c>
       <c r="AR2">
-        <v>0.06349994987249374</v>
+        <v>0.06013789027929306</v>
       </c>
       <c r="AS2">
-        <v>-0.0678182914853096</v>
+        <v>-0.07804824411869049</v>
       </c>
       <c r="AT2">
-        <v>-0.04119827225804329</v>
+        <v>-0.04058007150888443</v>
       </c>
       <c r="AU2">
-        <v>0.01333467569202185</v>
+        <v>0.01542837545275688</v>
       </c>
       <c r="AV2">
-        <v>0.02536709606647491</v>
+        <v>0.02613045647740364</v>
       </c>
       <c r="AW2">
-        <v>0.004505200777202845</v>
+        <v>0.002665887121111155</v>
       </c>
       <c r="AX2">
-        <v>0.02841139957308769</v>
+        <v>0.02728215605020523</v>
       </c>
       <c r="AY2">
-        <v>-0.07150557637214661</v>
+        <v>-0.06915508210659027</v>
       </c>
       <c r="AZ2">
-        <v>-0.08620375394821167</v>
+        <v>-0.08447184413671494</v>
       </c>
       <c r="BA2">
-        <v>-0.003430838463827968</v>
+        <v>-0.007133048959076405</v>
       </c>
       <c r="BB2">
-        <v>-0.01940347440540791</v>
+        <v>-0.01197290420532227</v>
       </c>
       <c r="BC2">
-        <v>0.004185090307146311</v>
+        <v>0.008887504227459431</v>
       </c>
       <c r="BD2">
-        <v>0.1427760422229767</v>
+        <v>0.1442523300647736</v>
       </c>
       <c r="BE2">
-        <v>-0.00938704889267683</v>
+        <v>-0.008695409633219242</v>
       </c>
       <c r="BF2">
-        <v>0.01336238067597151</v>
+        <v>0.0190204381942749</v>
       </c>
       <c r="BG2">
-        <v>0.0983889177441597</v>
+        <v>0.1002729386091232</v>
       </c>
       <c r="BH2">
-        <v>-0.002424673177301884</v>
+        <v>-0.0007812095573171973</v>
       </c>
       <c r="BI2">
-        <v>-0.06836123019456863</v>
+        <v>-0.06698892265558243</v>
       </c>
       <c r="BJ2">
-        <v>0.02850734069943428</v>
+        <v>0.03459278866648674</v>
       </c>
       <c r="BK2">
-        <v>0.002441533375531435</v>
+        <v>0.01004060730338097</v>
       </c>
       <c r="BL2">
-        <v>0.03058273904025555</v>
+        <v>0.02606561407446861</v>
       </c>
       <c r="BM2">
-        <v>0.08564013242721558</v>
+        <v>0.08042827248573303</v>
       </c>
       <c r="BN2">
-        <v>0.002552052494138479</v>
+        <v>0.009056108072400093</v>
       </c>
       <c r="BO2">
-        <v>0.05306495726108551</v>
+        <v>0.05141141265630722</v>
       </c>
       <c r="BP2">
-        <v>-0.02911278791725636</v>
+        <v>-0.03117255866527557</v>
       </c>
       <c r="BQ2">
-        <v>0.07850712537765503</v>
+        <v>0.0832318589091301</v>
       </c>
       <c r="BR2">
-        <v>0.000643594132270664</v>
+        <v>0.001619584858417511</v>
       </c>
       <c r="BS2">
-        <v>-0.008737408556044102</v>
+        <v>-0.005190294235944748</v>
       </c>
       <c r="BT2">
-        <v>-0.002122083678841591</v>
+        <v>-0.004320293664932251</v>
       </c>
       <c r="BU2">
-        <v>0.04161272943019867</v>
+        <v>0.04362747073173523</v>
       </c>
       <c r="BV2">
-        <v>-0.08183323591947556</v>
+        <v>-0.08655489981174469</v>
       </c>
       <c r="BW2">
-        <v>0.003376561449840665</v>
+        <v>0.00235832529142499</v>
       </c>
       <c r="BX2">
-        <v>0.02490429393947124</v>
+        <v>0.01988682150840759</v>
       </c>
       <c r="BY2">
-        <v>-0.0120162321254611</v>
+        <v>-0.01173700485378504</v>
       </c>
       <c r="BZ2">
-        <v>0.069095179438591</v>
+        <v>0.0641353502869606</v>
       </c>
       <c r="CA2">
-        <v>0.02279296889901161</v>
+        <v>0.02306494303047657</v>
       </c>
       <c r="CB2">
-        <v>-0.06320832669734955</v>
+        <v>-0.06532738357782364</v>
       </c>
       <c r="CC2">
-        <v>-0.00230485899373889</v>
+        <v>-0.0003983470087405294</v>
       </c>
       <c r="CD2">
-        <v>0.01806642115116119</v>
+        <v>0.01150864083319902</v>
       </c>
       <c r="CE2">
-        <v>-0.031441830098629</v>
+        <v>-0.02905390225350857</v>
       </c>
       <c r="CF2">
-        <v>-0.02945618703961372</v>
+        <v>-0.03687992319464684</v>
       </c>
       <c r="CG2">
-        <v>-0.04143992438912392</v>
+        <v>-0.0422140471637249</v>
       </c>
       <c r="CH2">
-        <v>0.01343960501253605</v>
+        <v>0.004118298646062613</v>
       </c>
       <c r="CI2">
-        <v>-0.02225143648684025</v>
+        <v>-0.02242345362901688</v>
       </c>
       <c r="CJ2">
-        <v>-0.06218011304736137</v>
+        <v>-0.05731271207332611</v>
       </c>
       <c r="CK2">
-        <v>0.01909526810050011</v>
+        <v>0.0223330445587635</v>
       </c>
       <c r="CL2">
-        <v>-0.00248109083622694</v>
+        <v>-0.003286965191364288</v>
       </c>
       <c r="CM2">
-        <v>0.06689467281103134</v>
+        <v>0.06880016624927521</v>
       </c>
       <c r="CN2">
-        <v>0.01488443091511726</v>
+        <v>0.0150162260979414</v>
       </c>
       <c r="CO2">
-        <v>0.001537074334919453</v>
+        <v>0.001406376482918859</v>
       </c>
       <c r="CP2">
-        <v>0.09469854831695557</v>
+        <v>0.1040374487638474</v>
       </c>
       <c r="CQ2">
-        <v>-0.03049864247441292</v>
+        <v>-0.03480072692036629</v>
       </c>
       <c r="CR2">
-        <v>0.01033593155443668</v>
+        <v>0.009230543859302998</v>
       </c>
       <c r="CS2">
-        <v>0.002291827229782939</v>
+        <v>0.002982512349262834</v>
       </c>
       <c r="CT2">
-        <v>-0.004451699554920197</v>
+        <v>-0.003596813185140491</v>
       </c>
       <c r="CU2">
-        <v>0.0009587747044861317</v>
+        <v>0.004627804737538099</v>
       </c>
       <c r="CV2">
-        <v>0.01080918684601784</v>
+        <v>0.004865129012614489</v>
       </c>
       <c r="CW2">
-        <v>-0.04391025006771088</v>
+        <v>-0.04855233058333397</v>
       </c>
       <c r="CX2">
-        <v>0.009024678729474545</v>
+        <v>0.01059194654226303</v>
       </c>
       <c r="CY2">
-        <v>0.00455400999635458</v>
+        <v>0.003528541652485728</v>
       </c>
       <c r="CZ2">
-        <v>0.001945870229974389</v>
+        <v>-0.002030754461884499</v>
       </c>
       <c r="DA2">
-        <v>-0.07070972770452499</v>
+        <v>-0.07021151483058929</v>
       </c>
       <c r="DB2">
-        <v>-0.0009461107547394931</v>
+        <v>0.003799345577135682</v>
       </c>
       <c r="DC2">
-        <v>0.001170567120425403</v>
+        <v>0.0003648071433417499</v>
       </c>
       <c r="DD2">
-        <v>-0.2198095619678497</v>
+        <v>-0.2239247113466263</v>
       </c>
       <c r="DE2">
-        <v>0.003117890097200871</v>
+        <v>0.003491912502795458</v>
       </c>
       <c r="DF2">
-        <v>-0.003719819942489266</v>
+        <v>-0.006415541749447584</v>
       </c>
       <c r="DG2">
-        <v>0.009473140351474285</v>
+        <v>0.01142505649477243</v>
       </c>
       <c r="DH2">
-        <v>0.1045903712511063</v>
+        <v>0.1026798188686371</v>
       </c>
       <c r="DI2">
-        <v>0.00822821632027626</v>
+        <v>0.01249875407665968</v>
       </c>
       <c r="DJ2">
-        <v>-0.01051151007413864</v>
+        <v>-0.01520463731139898</v>
       </c>
       <c r="DK2">
-        <v>-0.04966859146952629</v>
+        <v>-0.04378470778465271</v>
       </c>
       <c r="DL2">
-        <v>-0.09187376499176025</v>
+        <v>-0.1016666516661644</v>
       </c>
       <c r="DM2">
-        <v>-0.005163388792425394</v>
+        <v>-0.0001126999995904043</v>
       </c>
       <c r="DN2">
-        <v>-0.1435979753732681</v>
+        <v>-0.1414984315633774</v>
       </c>
       <c r="DO2">
-        <v>0.04440172016620636</v>
+        <v>0.05448677763342857</v>
       </c>
       <c r="DP2">
-        <v>0.004120789933949709</v>
+        <v>-0.0003035384288523346</v>
       </c>
       <c r="DQ2">
-        <v>0.00699545256793499</v>
+        <v>0.007436091545969248</v>
       </c>
       <c r="DR2">
-        <v>0.01351745706051588</v>
+        <v>0.006590773817151785</v>
       </c>
       <c r="DS2">
-        <v>-0.04926208779215813</v>
+        <v>-0.04642193391919136</v>
       </c>
       <c r="DT2">
-        <v>-0.007194676902145147</v>
+        <v>-0.00340053578838706</v>
       </c>
       <c r="DU2">
-        <v>0.05188758671283722</v>
+        <v>0.04574595391750336</v>
       </c>
       <c r="DV2">
-        <v>0.01254370994865894</v>
+        <v>0.00399711960926652</v>
       </c>
       <c r="DW2">
-        <v>-0.002059257822111249</v>
+        <v>0.007324118167161942</v>
       </c>
       <c r="DX2">
-        <v>0.05328428372740746</v>
+        <v>0.05454191192984581</v>
       </c>
       <c r="DY2">
-        <v>-0.04910274595022202</v>
+        <v>-0.04551282152533531</v>
       </c>
       <c r="DZ2">
-        <v>-0.005080710165202618</v>
+        <v>-0.004907149355858564</v>
       </c>
       <c r="EA2">
-        <v>0.05758088082075119</v>
+        <v>0.06024979799985886</v>
       </c>
       <c r="EB2">
-        <v>-0.05793866142630577</v>
+        <v>-0.05720115453004837</v>
       </c>
       <c r="EC2">
-        <v>-0.002202922478318214</v>
+        <v>-0.004061929881572723</v>
       </c>
       <c r="ED2">
-        <v>-0.02747689746320248</v>
+        <v>-0.02432922087609768</v>
       </c>
       <c r="EE2">
-        <v>-0.002358638215810061</v>
+        <v>-0.001390982884913683</v>
       </c>
       <c r="EF2">
-        <v>0.008152979426085949</v>
+        <v>0.004473370499908924</v>
       </c>
       <c r="EG2">
-        <v>-0.02894913963973522</v>
+        <v>-0.02437859028577805</v>
       </c>
       <c r="EH2">
-        <v>-0.1183258518576622</v>
+        <v>-0.1081388369202614</v>
       </c>
       <c r="EI2">
-        <v>-0.02320594899356365</v>
+        <v>-0.02253887988626957</v>
       </c>
       <c r="EJ2">
-        <v>0.07273233681917191</v>
+        <v>0.08103971183300018</v>
       </c>
       <c r="EK2">
-        <v>-0.005424338392913342</v>
+        <v>-0.004378410056233406</v>
       </c>
       <c r="EL2">
-        <v>-7.180708053056151E-05</v>
+        <v>0.001220257952809334</v>
       </c>
       <c r="EM2">
-        <v>0.01384526770561934</v>
+        <v>0.01424642186611891</v>
       </c>
       <c r="EN2">
-        <v>0.007261502090841532</v>
+        <v>0.0109490780159831</v>
       </c>
       <c r="EO2">
-        <v>-0.0879708006978035</v>
+        <v>-0.08706751465797424</v>
       </c>
       <c r="EP2">
-        <v>0.1507498174905777</v>
+        <v>0.1538672000169754</v>
       </c>
       <c r="EQ2">
-        <v>0.06489982455968857</v>
+        <v>0.06663939356803894</v>
       </c>
       <c r="ER2">
-        <v>-0.0009123630588874221</v>
+        <v>0.00367891532368958</v>
       </c>
       <c r="ES2">
-        <v>0.01974738948047161</v>
+        <v>0.01819379068911076</v>
       </c>
       <c r="ET2">
-        <v>0.05839533731341362</v>
+        <v>0.05987244471907616</v>
       </c>
       <c r="EU2">
-        <v>0.01021519955247641</v>
+        <v>0.01162658166140318</v>
       </c>
       <c r="EV2">
-        <v>0.01628807187080383</v>
+        <v>0.01717298850417137</v>
       </c>
       <c r="EW2">
-        <v>-0.008175811730325222</v>
+        <v>-0.004409846384078264</v>
       </c>
       <c r="EX2">
-        <v>-0.1622938215732574</v>
+        <v>-0.164357602596283</v>
       </c>
       <c r="EY2">
-        <v>-0.007420416921377182</v>
+        <v>-0.005739728454500437</v>
       </c>
       <c r="EZ2">
-        <v>-0.04460543766617775</v>
+        <v>-0.04373587667942047</v>
       </c>
       <c r="FA2">
-        <v>0.01049751788377762</v>
+        <v>0.006938267964869738</v>
       </c>
       <c r="FB2">
-        <v>-0.003794212127104402</v>
+        <v>-0.00375736434943974</v>
       </c>
       <c r="FC2">
-        <v>-0.106348380446434</v>
+        <v>-0.1138041466474533</v>
       </c>
       <c r="FD2">
-        <v>1.618815622350667E-05</v>
+        <v>-0.004978747107088566</v>
       </c>
       <c r="FE2">
-        <v>-0.03065486252307892</v>
+        <v>-0.02728596515953541</v>
       </c>
       <c r="FF2">
-        <v>-0.1297706663608551</v>
+        <v>-0.1301691383123398</v>
       </c>
       <c r="FG2">
-        <v>-0.1323435455560684</v>
+        <v>-0.1421154141426086</v>
       </c>
       <c r="FH2">
-        <v>0.0001268959458684549</v>
+        <v>-0.01256751734763384</v>
       </c>
       <c r="FI2">
-        <v>-0.02975080534815788</v>
+        <v>-0.01914873532950878</v>
       </c>
       <c r="FJ2">
-        <v>0.008088164031505585</v>
+        <v>0.01096258871257305</v>
       </c>
       <c r="FK2">
-        <v>-0.06081201508641243</v>
+        <v>-0.05521367117762566</v>
       </c>
       <c r="FL2">
-        <v>0.03624184057116508</v>
+        <v>0.03295411542057991</v>
       </c>
       <c r="FM2">
-        <v>0.01330408453941345</v>
+        <v>0.01082221791148186</v>
       </c>
       <c r="FN2">
-        <v>-0.005083481315523386</v>
+        <v>-0.008926762267947197</v>
       </c>
       <c r="FO2">
-        <v>0.0182194896042347</v>
+        <v>0.009497769176959991</v>
       </c>
       <c r="FP2">
-        <v>0.01492956280708313</v>
+        <v>0.001118071028031409</v>
       </c>
       <c r="FQ2">
-        <v>0.002654568990692496</v>
+        <v>0.003402970731258392</v>
       </c>
       <c r="FR2">
-        <v>-0.002117389813065529</v>
+        <v>-0.002140135504305363</v>
       </c>
       <c r="FS2">
-        <v>-0.00218049087561667</v>
+        <v>-0.002422378165647388</v>
       </c>
       <c r="FT2">
-        <v>0.00353368790820241</v>
+        <v>0.002559300512075424</v>
       </c>
       <c r="FU2">
-        <v>0.1004220023751259</v>
+        <v>0.1031541079282761</v>
       </c>
       <c r="FV2">
-        <v>-0.07944277673959732</v>
+        <v>-0.07626787573099136</v>
       </c>
       <c r="FW2">
-        <v>0.05579396709799767</v>
+        <v>0.0570756122469902</v>
       </c>
       <c r="FX2">
-        <v>-0.006964016705751419</v>
+        <v>-0.00538212712854147</v>
       </c>
       <c r="FY2">
-        <v>0.01343913283199072</v>
+        <v>0.01166444178670645</v>
       </c>
       <c r="FZ2">
-        <v>0.003369512502104044</v>
+        <v>0.0113936560228467</v>
       </c>
       <c r="GA2">
-        <v>-0.003796383738517761</v>
+        <v>0.007844531908631325</v>
       </c>
       <c r="GB2">
-        <v>0.01487803366035223</v>
+        <v>0.005994502454996109</v>
       </c>
       <c r="GC2">
-        <v>-0.08382271230220795</v>
+        <v>-0.0768120214343071</v>
       </c>
       <c r="GD2">
-        <v>0.05792367085814476</v>
+        <v>0.0596381388604641</v>
       </c>
       <c r="GE2">
-        <v>0.004207966383546591</v>
+        <v>0.005679904483258724</v>
       </c>
       <c r="GF2">
-        <v>0.00701176468282938</v>
+        <v>0.01448457501828671</v>
       </c>
       <c r="GG2">
-        <v>-0.13409823179245</v>
+        <v>-0.1268041431903839</v>
       </c>
       <c r="GH2">
-        <v>-0.003908941056579351</v>
+        <v>-0.0008946731104515493</v>
       </c>
       <c r="GI2">
-        <v>0.0427519828081131</v>
+        <v>0.03102690726518631</v>
       </c>
       <c r="GJ2">
-        <v>-0.007470459211617708</v>
+        <v>-0.001342903473414481</v>
       </c>
       <c r="GK2">
-        <v>-0.04881682246923447</v>
+        <v>-0.05336532741785049</v>
       </c>
       <c r="GL2">
-        <v>-0.003728223964571953</v>
+        <v>-0.006291615311056376</v>
       </c>
       <c r="GM2">
-        <v>-0.1078239977359772</v>
+        <v>-0.0971200168132782</v>
       </c>
       <c r="GN2">
-        <v>0.06830472499132156</v>
+        <v>0.06728893518447876</v>
       </c>
       <c r="GO2">
-        <v>-0.05580837279558182</v>
+        <v>-0.05480321496725082</v>
       </c>
       <c r="GP2">
-        <v>0.000262010406004265</v>
+        <v>0.0003506311331875622</v>
       </c>
       <c r="GQ2">
-        <v>0.01211843173950911</v>
+        <v>0.006938312202692032</v>
       </c>
       <c r="GR2">
-        <v>0.003406534669920802</v>
+        <v>-0.004436128307133913</v>
       </c>
       <c r="GS2">
-        <v>-0.03032494522631168</v>
+        <v>-0.03191788867115974</v>
       </c>
       <c r="GT2">
-        <v>0.003364832140505314</v>
+        <v>-0.005937737878412008</v>
       </c>
       <c r="GU2">
-        <v>0.01630250364542007</v>
+        <v>0.01307241059839725</v>
       </c>
       <c r="GV2">
-        <v>0.003135542618110776</v>
+        <v>0.003925272263586521</v>
       </c>
       <c r="GW2">
-        <v>-0.03906731680035591</v>
+        <v>-0.04691639170050621</v>
       </c>
       <c r="GX2">
-        <v>0.003026848658919334</v>
+        <v>0.004474247805774212</v>
       </c>
       <c r="GY2">
-        <v>0.0001978843502001837</v>
+        <v>0.00152139097917825</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02034011669456959</v>
+        <v>0.02364139817655087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03370514884591103</v>
+        <v>0.03440863639116287</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05088365450501442</v>
+        <v>-0.05020703002810478</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0507204495370388</v>
+        <v>-0.04601215198636055</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003055483335629106</v>
+        <v>-5.333232184057124e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03970959782600403</v>
+        <v>-0.04230914637446404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01518510468304157</v>
+        <v>0.01194765325635672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002742159180343151</v>
+        <v>0.003459775354713202</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1692815124988556</v>
+        <v>0.1724939197301865</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01006256602704525</v>
+        <v>0.01114033907651901</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007104963064193726</v>
+        <v>0.01002396736294031</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01565062627196312</v>
+        <v>0.01910065114498138</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005509764887392521</v>
+        <v>0.004891670309007168</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0596965067088604</v>
+        <v>-0.06257861107587814</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02835439331829548</v>
+        <v>0.03767712041735649</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00490246806293726</v>
+        <v>-0.001131506753154099</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0008427525172010064</v>
+        <v>-0.002820400521159172</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09922235459089279</v>
+        <v>0.09757035970687866</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06596460938453674</v>
+        <v>0.06487006694078445</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0937592089176178</v>
+        <v>0.1000622734427452</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008130218833684921</v>
+        <v>0.01475414354354143</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08025979250669479</v>
+        <v>-0.0759379118680954</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0009277714416384697</v>
+        <v>0.00531812896952033</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08540095388889313</v>
+        <v>0.0895848274230957</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07690150290727615</v>
+        <v>-0.0784105584025383</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.004315697122365236</v>
+        <v>-0.002339181955903769</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04081523790955544</v>
+        <v>0.03954087942838669</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07189563661813736</v>
+        <v>0.07072433829307556</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.07259159535169601</v>
+        <v>-0.07329605519771576</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1223782896995544</v>
+        <v>-0.1213860288262367</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01026031840592623</v>
+        <v>-0.008469251915812492</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1038824394345284</v>
+        <v>-0.1091986373066902</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05091250687837601</v>
+        <v>0.05521424114704132</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.06143481284379959</v>
+        <v>-0.06094681844115257</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01796948537230492</v>
+        <v>-0.01465783827006817</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004476393572986126</v>
+        <v>0.006859833374619484</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.005276969633996487</v>
+        <v>-0.0007915841997601092</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.01961802318692207</v>
+        <v>-0.02191872335970402</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.09755763411521912</v>
+        <v>-0.1002915799617767</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04849554598331451</v>
+        <v>-0.0526357926428318</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1008520275354385</v>
+        <v>-0.1004021391272545</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.009351121261715889</v>
+        <v>-0.00426749000325799</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06317165493965149</v>
+        <v>0.06494534015655518</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0804801732301712</v>
+        <v>-0.08234050869941711</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.04605891928076744</v>
+        <v>-0.0469842404127121</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0137849235907197</v>
+        <v>0.01263313461095095</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02280358970165253</v>
+        <v>0.02441041544079781</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0006891684606671333</v>
+        <v>-0.0008907259325496852</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02972444333136082</v>
+        <v>0.03466701507568359</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0728643462061882</v>
+        <v>-0.0703737884759903</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.08571430295705795</v>
+        <v>-0.0873696357011795</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.01042474620044231</v>
+        <v>-0.01198168378323317</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.007790837436914444</v>
+        <v>-0.002976588672026992</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01195790898054838</v>
+        <v>0.01169302314519882</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1435332000255585</v>
+        <v>0.1428495198488235</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.003878128482028842</v>
+        <v>0.005976778920739889</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02511443942785263</v>
+        <v>0.02893512323498726</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.09943953901529312</v>
+        <v>0.09895827621221542</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.001563599100336432</v>
+        <v>0.0005920252297073603</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.06572952121496201</v>
+        <v>-0.06702002882957458</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02856067381799221</v>
+        <v>0.02728375606238842</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.005473274271935225</v>
+        <v>-0.001307019265368581</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02685040235519409</v>
+        <v>0.03126674517989159</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.08006030321121216</v>
+        <v>0.074097640812397</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01009328383952379</v>
+        <v>0.01003524288535118</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.04793264344334602</v>
+        <v>0.05248319730162621</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.02964645251631737</v>
+        <v>-0.02365569397807121</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.08352598547935486</v>
+        <v>0.08037648350000381</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.004850814118981361</v>
+        <v>0.009143712930381298</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.00586148165166378</v>
+        <v>0.000298430590191856</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.0009138506720773876</v>
+        <v>0.002108643762767315</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04258951172232628</v>
+        <v>0.04297367483377457</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.08895449340343475</v>
+        <v>-0.09198146313428879</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.008562235161662102</v>
+        <v>0.001335363602265716</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.02242147177457809</v>
+        <v>0.0251022707670927</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.007400312926620245</v>
+        <v>-0.006879071705043316</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.06667070090770721</v>
+        <v>0.07164592295885086</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02168935723602772</v>
+        <v>0.02040714025497437</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06491531431674957</v>
+        <v>-0.06808677315711975</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.001138739520683885</v>
+        <v>-0.0005400160443969071</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.009863127954304218</v>
+        <v>0.009905010461807251</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.02769219316542149</v>
+        <v>-0.02892668917775154</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03301208466291428</v>
+        <v>-0.02924507483839989</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.04527661576867104</v>
+        <v>-0.03837887942790985</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.001273882924579084</v>
+        <v>0.004309820476919413</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02266060560941696</v>
+        <v>-0.02384577319025993</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.05606717243790627</v>
+        <v>-0.06316129118204117</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02283111587166786</v>
+        <v>0.02207271009683609</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.002975935116410255</v>
+        <v>-0.001858420786447823</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.07070079445838928</v>
+        <v>0.06968304514884949</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.009146956726908684</v>
+        <v>0.01015299092978239</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0003537652373779565</v>
+        <v>-0.001289376290515065</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.1086787432432175</v>
+        <v>0.1064649000763893</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03429219499230385</v>
+        <v>-0.03697773069143295</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.004941833205521107</v>
+        <v>0.0007554145995527506</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0038087940774858</v>
+        <v>0.003849904518574476</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.004125886596739292</v>
+        <v>-0.003182932501658797</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.0005721289780922234</v>
+        <v>-0.005762215703725815</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.005083039868623018</v>
+        <v>-0.0008218109724111855</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.05392131954431534</v>
+        <v>-0.05372587218880653</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00680502038449049</v>
+        <v>0.01125326193869114</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001173256663605571</v>
+        <v>-0.0007691826322115958</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0002469627652317286</v>
+        <v>0.002707322360947728</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.07488464564085007</v>
+        <v>-0.06923244893550873</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.004307219758629799</v>
+        <v>-0.008104020729660988</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.004700442310422659</v>
+        <v>0.002279952168464661</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.2202359139919281</v>
+        <v>-0.2191051542758942</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.003982249647378922</v>
+        <v>0.004186771344393492</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.008528612554073334</v>
+        <v>-0.005455042701214552</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.008237910456955433</v>
+        <v>0.005354848224669695</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.1069787368178368</v>
+        <v>0.1064956113696098</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01025849301367998</v>
+        <v>0.004162160214036703</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0124983424320817</v>
+        <v>-0.01202623825520277</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.04553946852684021</v>
+        <v>-0.05120646953582764</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1003632098436356</v>
+        <v>-0.09702900052070618</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.006142495665699244</v>
+        <v>-0.003225691616535187</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1422515511512756</v>
+        <v>-0.1424363404512405</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.05131581425666809</v>
+        <v>0.0515270009636879</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.001481458428315818</v>
+        <v>0.002012655138969421</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.007754242047667503</v>
+        <v>0.007061642128974199</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.005780026782304049</v>
+        <v>0.006635986268520355</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.05000999569892883</v>
+        <v>-0.04808071255683899</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.004289438016712666</v>
+        <v>-0.003120569046586752</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0441090427339077</v>
+        <v>0.04256031662225723</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.01225214544683695</v>
+        <v>0.0121154673397541</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.009490560740232468</v>
+        <v>0.009649354033172131</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05405153706669807</v>
+        <v>0.05363194271922112</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.04104586690664291</v>
+        <v>-0.04735759273171425</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.002309344476088881</v>
+        <v>0.002940806560218334</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05852030217647552</v>
+        <v>0.05414575338363647</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.05754000693559647</v>
+        <v>-0.05835852026939392</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.006720529403537512</v>
+        <v>-0.007420186884701252</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.02320949733257294</v>
+        <v>-0.0238176267594099</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0008303714566864073</v>
+        <v>-0.000619805243331939</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.008004301227629185</v>
+        <v>0.01330216601490974</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.01504225935786963</v>
+        <v>-0.0174096692353487</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.1036645546555519</v>
+        <v>-0.1036972403526306</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.02044231630861759</v>
+        <v>-0.01537819113582373</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.07610917091369629</v>
+        <v>0.07708582282066345</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.005043741781264544</v>
+        <v>-0.005520263686776161</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.110351852024905e-05</v>
+        <v>-0.001359762507490814</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0186093021184206</v>
+        <v>0.02510265447199345</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.008659153245389462</v>
+        <v>0.005683911964297295</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.08817867934703827</v>
+        <v>-0.08129335194826126</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.157283827662468</v>
+        <v>0.1631762534379959</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0669071227312088</v>
+        <v>0.0619284063577652</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003344933269545436</v>
+        <v>0.00470798509195447</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02348366566002369</v>
+        <v>0.02360954135656357</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.05801409482955933</v>
+        <v>0.06337133795022964</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.006578419823199511</v>
+        <v>0.007797397207468748</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01702802442014217</v>
+        <v>0.01881278306245804</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.005301965866237879</v>
+        <v>-0.002541119232773781</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1581798493862152</v>
+        <v>-0.1544071137905121</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.006198161747306585</v>
+        <v>-0.005594604648649693</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.04057766869664192</v>
+        <v>-0.04283101484179497</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006350541952997446</v>
+        <v>0.01220398768782616</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.003875148482620716</v>
+        <v>-0.004135968629270792</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1095240712165833</v>
+        <v>-0.1060594692826271</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.004358882084488869</v>
+        <v>-0.002029220340773463</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.03180747106671333</v>
+        <v>-0.03047888725996017</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.1316504627466202</v>
+        <v>-0.1322711855173111</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1473068296909332</v>
+        <v>-0.1420697271823883</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0083006601780653</v>
+        <v>-0.009642030112445354</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.02008412592113018</v>
+        <v>-0.02056986466050148</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.008802732452750206</v>
+        <v>0.007552310824394226</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.05277997627854347</v>
+        <v>-0.0543430782854557</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.03720112890005112</v>
+        <v>0.0411808006465435</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01474618725478649</v>
+        <v>0.008881965652108192</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.006629652343690395</v>
+        <v>-0.001760431914590299</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01524774357676506</v>
+        <v>0.009310091845691204</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00551749300211668</v>
+        <v>0.001930916216224432</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.002282381523400545</v>
+        <v>0.000849096744786948</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.002268779557198286</v>
+        <v>-0.00286018755286932</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.00296236271969974</v>
+        <v>-0.001787671120837331</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001300121657550335</v>
+        <v>-0.0002739974006544799</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.1043686047196388</v>
+        <v>0.1033189669251442</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.07615267485380173</v>
+        <v>-0.07624554634094238</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05837015807628632</v>
+        <v>0.05728587135672569</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0005678945453837514</v>
+        <v>-0.002955097006633878</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.008876253850758076</v>
+        <v>0.007703839801251888</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01279016677290201</v>
+        <v>0.009942605160176754</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01090853288769722</v>
+        <v>0.005662709940224886</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.003463205881416798</v>
+        <v>0.001165686524473131</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.07589507848024368</v>
+        <v>-0.07917869091033936</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.06234242022037506</v>
+        <v>0.0591670423746109</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.004655745346099138</v>
+        <v>0.003310875035822392</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01977656595408916</v>
+        <v>0.01967651583254337</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1250389218330383</v>
+        <v>-0.1242914721369743</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.005465059075504541</v>
+        <v>-0.0110272616147995</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.03247224912047386</v>
+        <v>0.03442583978176117</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.001443288987502456</v>
+        <v>-0.000124771409900859</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.0524899922311306</v>
+        <v>-0.05272933095693588</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.005687933415174484</v>
+        <v>-0.0007387603400275111</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.0986323282122612</v>
+        <v>-0.1012120991945267</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.06588049978017807</v>
+        <v>0.06124209985136986</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.05680060386657715</v>
+        <v>-0.05408520251512527</v>
       </c>
       <c r="GP2" t="n">
-        <v>-4.627457201422658e-06</v>
+        <v>0.0003271123568993062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.00402061128988862</v>
+        <v>0.003943671472370625</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.002991145243868232</v>
+        <v>0.003655825974419713</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02898314595222473</v>
+        <v>-0.02229882776737213</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.005272061098366976</v>
+        <v>-0.008839237503707409</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.01187165267765522</v>
+        <v>0.0106783602386713</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.007061430718749762</v>
+        <v>0.004203674849122763</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.04640745744109154</v>
+        <v>-0.04289506375789642</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.002893712604418397</v>
+        <v>0.003391773905605078</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.0008806001860648394</v>
+        <v>-1.243699898623163e-05</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
+++ b/static/Models/Regression/Equation/Public Sector Enterprises.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02364139817655087</v>
+        <v>0.02217979356646538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03440863639116287</v>
+        <v>0.030412832275033</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05020703002810478</v>
+        <v>-0.04791971296072006</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04601215198636055</v>
+        <v>-0.03677160665392876</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.333232184057124e-05</v>
+        <v>0.001720053260214627</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04230914637446404</v>
+        <v>-0.04122433811426163</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01194765325635672</v>
+        <v>0.01133179292082787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003459775354713202</v>
+        <v>0.004073317162692547</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1724939197301865</v>
+        <v>0.1795314252376556</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01114033907651901</v>
+        <v>0.01238317508250475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01002396736294031</v>
+        <v>0.013311468064785</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01910065114498138</v>
+        <v>0.01310952939093113</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004891670309007168</v>
+        <v>0.0009126551449298859</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.06257861107587814</v>
+        <v>-0.06441309303045273</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03767712041735649</v>
+        <v>0.03874471038579941</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.001131506753154099</v>
+        <v>-0.003960360307246447</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.002820400521159172</v>
+        <v>0.00635491544380784</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09757035970687866</v>
+        <v>0.1009204685688019</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06487006694078445</v>
+        <v>0.06668563187122345</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1000622734427452</v>
+        <v>0.1022568121552467</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01475414354354143</v>
+        <v>0.01638613827526569</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0759379118680954</v>
+        <v>-0.07711371779441833</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00531812896952033</v>
+        <v>0.001854271395131946</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0895848274230957</v>
+        <v>0.08586342632770538</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0784105584025383</v>
+        <v>-0.0868554562330246</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.002339181955903769</v>
+        <v>-0.0009646423859521747</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03954087942838669</v>
+        <v>0.03467245399951935</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07072433829307556</v>
+        <v>0.07238657027482986</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.07329605519771576</v>
+        <v>-0.07243964821100235</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1213860288262367</v>
+        <v>-0.1222442090511322</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.008469251915812492</v>
+        <v>-0.01212968863546848</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1091986373066902</v>
+        <v>-0.1082458347082138</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05521424114704132</v>
+        <v>0.05442622676491737</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.06094681844115257</v>
+        <v>-0.0598413273692131</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01465783827006817</v>
+        <v>-0.006494145840406418</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.006859833374619484</v>
+        <v>0.01007053256034851</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0007915841997601092</v>
+        <v>-0.002415589056909084</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.02191872335970402</v>
+        <v>-0.01999488472938538</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1002915799617767</v>
+        <v>-0.08776023983955383</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.0526357926428318</v>
+        <v>-0.05624792724847794</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1004021391272545</v>
+        <v>-0.0947246178984642</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.00426749000325799</v>
+        <v>-0.004326966125518084</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06494534015655518</v>
+        <v>0.06784481555223465</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.08234050869941711</v>
+        <v>-0.06949546933174133</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0469842404127121</v>
+        <v>-0.04541941359639168</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01263313461095095</v>
+        <v>0.01099354308098555</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02441041544079781</v>
+        <v>0.03113971091806889</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0008907259325496852</v>
+        <v>-0.004963412415236235</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.03466701507568359</v>
+        <v>0.03130219876766205</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0703737884759903</v>
+        <v>-0.06764549016952515</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0873696357011795</v>
+        <v>-0.08324570208787918</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.01198168378323317</v>
+        <v>-0.008981237187981606</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.002976588672026992</v>
+        <v>-0.007239434402436018</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.01169302314519882</v>
+        <v>0.02026301622390747</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1428495198488235</v>
+        <v>0.1433385461568832</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.005976778920739889</v>
+        <v>0.007991519756615162</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.02893512323498726</v>
+        <v>0.02401062846183777</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.09895827621221542</v>
+        <v>0.09918671101331711</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0005920252297073603</v>
+        <v>0.00784009788185358</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.06702002882957458</v>
+        <v>-0.06629512459039688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02728375606238842</v>
+        <v>0.02204673364758492</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.001307019265368581</v>
+        <v>-0.002600613748654723</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.03126674517989159</v>
+        <v>0.03379864618182182</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.074097640812397</v>
+        <v>0.07715827226638794</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.01003524288535118</v>
+        <v>-0.003302702447399497</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05248319730162621</v>
+        <v>0.0439179390668869</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.02365569397807121</v>
+        <v>-0.01402182132005692</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.08037648350000381</v>
+        <v>0.07536446303129196</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.009143712930381298</v>
+        <v>0.007163325324654579</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.000298430590191856</v>
+        <v>0.0001642151473788545</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.002108643762767315</v>
+        <v>0.0001326693745795637</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04297367483377457</v>
+        <v>0.04262317344546318</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.09198146313428879</v>
+        <v>-0.08832164853811264</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.001335363602265716</v>
+        <v>-0.00256307190284133</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0251022707670927</v>
+        <v>0.02948944643139839</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.006879071705043316</v>
+        <v>-0.004466615617275238</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.07164592295885086</v>
+        <v>0.07749320566654205</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02040714025497437</v>
+        <v>0.01776277087628841</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06808677315711975</v>
+        <v>-0.06569454818964005</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.0005400160443969071</v>
+        <v>0.0009131476981565356</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.009905010461807251</v>
+        <v>0.008573934435844421</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.02892668917775154</v>
+        <v>-0.0329735241830349</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.02924507483839989</v>
+        <v>-0.03462519869208336</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.03837887942790985</v>
+        <v>-0.03691843152046204</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.004309820476919413</v>
+        <v>0.004985375329852104</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02384577319025993</v>
+        <v>-0.02286463789641857</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.06316129118204117</v>
+        <v>-0.06205159425735474</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02207271009683609</v>
+        <v>0.02120344154536724</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.001858420786447823</v>
+        <v>-0.0008524508448317647</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.06968304514884949</v>
+        <v>0.07613766193389893</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01015299092978239</v>
+        <v>0.007293808273971081</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.001289376290515065</v>
+        <v>-0.001768518588505685</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.1064649000763893</v>
+        <v>0.1050583347678185</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03697773069143295</v>
+        <v>-0.03420174494385719</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007554145995527506</v>
+        <v>0.003123344387859106</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.003849904518574476</v>
+        <v>0.002764924196526408</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.003182932501658797</v>
+        <v>-0.001451891730539501</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.005762215703725815</v>
+        <v>0.0004977930220775306</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0008218109724111855</v>
+        <v>-0.003910984378308058</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.05372587218880653</v>
+        <v>-0.04790548607707024</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01125326193869114</v>
+        <v>0.01593637280166149</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.0007691826322115958</v>
+        <v>-0.004344828426837921</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002707322360947728</v>
+        <v>0.003594854380935431</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.06923244893550873</v>
+        <v>-0.07349910587072372</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.008104020729660988</v>
+        <v>-0.01291724387556314</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.002279952168464661</v>
+        <v>0.004243938252329826</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.2191051542758942</v>
+        <v>-0.2155357897281647</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.004186771344393492</v>
+        <v>0.003574788803234696</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.005455042701214552</v>
+        <v>-0.005238662473857403</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.005354848224669695</v>
+        <v>0.005003692582249641</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.1064956113696098</v>
+        <v>0.1002143993973732</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.004162160214036703</v>
+        <v>0.002940833102911711</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.01202623825520277</v>
+        <v>-0.008548926562070847</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.05120646953582764</v>
+        <v>-0.05148729309439659</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.09702900052070618</v>
+        <v>-0.09533640742301941</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.003225691616535187</v>
+        <v>-0.003446166403591633</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1424363404512405</v>
+        <v>-0.1415712982416153</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0515270009636879</v>
+        <v>0.05378914996981621</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002012655138969421</v>
+        <v>-3.596898750402033e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.007061642128974199</v>
+        <v>0.008269854821264744</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006635986268520355</v>
+        <v>0.01024248544126749</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.04808071255683899</v>
+        <v>-0.05113417655229568</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.003120569046586752</v>
+        <v>0.004463574849069118</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.04256031662225723</v>
+        <v>0.04279688745737076</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0121154673397541</v>
+        <v>0.01395037770271301</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.009649354033172131</v>
+        <v>0.004571535158902407</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.05363194271922112</v>
+        <v>0.05588750168681145</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.04735759273171425</v>
+        <v>-0.04558862373232841</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.002940806560218334</v>
+        <v>0.0008817320922389627</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05414575338363647</v>
+        <v>0.05430477857589722</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.05835852026939392</v>
+        <v>-0.05821323394775391</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.007420186884701252</v>
+        <v>-0.009992653504014015</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0238176267594099</v>
+        <v>-0.02212851122021675</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.000619805243331939</v>
+        <v>-0.001630933955311775</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.01330216601490974</v>
+        <v>0.006687098182737827</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.0174096692353487</v>
+        <v>-0.01677075773477554</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.1036972403526306</v>
+        <v>-0.09888151288032532</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.01537819113582373</v>
+        <v>-0.01130382157862186</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.07708582282066345</v>
+        <v>0.07835943996906281</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.005520263686776161</v>
+        <v>-0.004587756004184484</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.001359762507490814</v>
+        <v>-0.0007131838356144726</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02510265447199345</v>
+        <v>0.03229124471545219</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.005683911964297295</v>
+        <v>0.01357702910900116</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.08129335194826126</v>
+        <v>-0.08235062658786774</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1631762534379959</v>
+        <v>0.1623789221048355</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0619284063577652</v>
+        <v>0.05924931913614273</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00470798509195447</v>
+        <v>0.0008423153194598854</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02360954135656357</v>
+        <v>0.02381247654557228</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.06337133795022964</v>
+        <v>0.06499017030000687</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.007797397207468748</v>
+        <v>0.002473021158948541</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01881278306245804</v>
+        <v>0.01784617826342583</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.002541119232773781</v>
+        <v>0.0006424548919312656</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.1544071137905121</v>
+        <v>-0.1604838818311691</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.005594604648649693</v>
+        <v>-0.005672996863722801</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.04283101484179497</v>
+        <v>-0.03409192711114883</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.01220398768782616</v>
+        <v>0.009378441609442234</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.004135968629270792</v>
+        <v>-0.003613000269979239</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.1060594692826271</v>
+        <v>-0.1147040203213692</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.002029220340773463</v>
+        <v>-0.001381729263812304</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.03047888725996017</v>
+        <v>-0.03404552862048149</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.1322711855173111</v>
+        <v>-0.1264430731534958</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1420697271823883</v>
+        <v>-0.1410125494003296</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.009642030112445354</v>
+        <v>-0.007129955105483532</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.02056986466050148</v>
+        <v>-0.02906599454581738</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.007552310824394226</v>
+        <v>0.009295926429331303</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.0543430782854557</v>
+        <v>-0.05491730198264122</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0411808006465435</v>
+        <v>0.04359012097120285</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.008881965652108192</v>
+        <v>0.0153195895254612</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.001760431914590299</v>
+        <v>-0.001765705877915025</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.009310091845691204</v>
+        <v>0.003656144021078944</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001930916216224432</v>
+        <v>0.0074985446408391</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.000849096744786948</v>
+        <v>0.001379086985252798</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.00286018755286932</v>
+        <v>-0.001908397069200873</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.001787671120837331</v>
+        <v>0.0001442508364561945</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0002739974006544799</v>
+        <v>-0.001392821897752583</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.1033189669251442</v>
+        <v>0.1038230136036873</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.07624554634094238</v>
+        <v>-0.076718769967556</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05728587135672569</v>
+        <v>0.05785504728555679</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.002955097006633878</v>
+        <v>-0.01007235143333673</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.007703839801251888</v>
+        <v>0.005876167211681604</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.009942605160176754</v>
+        <v>0.01121928729116917</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.005662709940224886</v>
+        <v>0.00784778781235218</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.001165686524473131</v>
+        <v>0.008373395539820194</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.07917869091033936</v>
+        <v>-0.08384817838668823</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0591670423746109</v>
+        <v>0.05586544051766396</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.003310875035822392</v>
+        <v>0.003712724894285202</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01967651583254337</v>
+        <v>0.02033298090100288</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1242914721369743</v>
+        <v>-0.1164749413728714</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.0110272616147995</v>
+        <v>-0.004362829029560089</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.03442583978176117</v>
+        <v>0.0310028325766325</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.000124771409900859</v>
+        <v>-0.001954918960109353</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.05272933095693588</v>
+        <v>-0.0519774965941906</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.0007387603400275111</v>
+        <v>0.004177936352789402</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.1012120991945267</v>
+        <v>-0.1031121164560318</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.06124209985136986</v>
+        <v>0.04788607731461525</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.05408520251512527</v>
+        <v>-0.05179536715149879</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.0003271123568993062</v>
+        <v>0.002421511802822351</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.003943671472370625</v>
+        <v>0.0006609302945435047</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.003655825974419713</v>
+        <v>0.002977431518957019</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02229882776737213</v>
+        <v>-0.02026490494608879</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.008839237503707409</v>
+        <v>-0.01253933180123568</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.0106783602386713</v>
+        <v>0.00898062065243721</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004203674849122763</v>
+        <v>0.001849455409683287</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.04289506375789642</v>
+        <v>-0.04825163632631302</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.003391773905605078</v>
+        <v>0.002630366943776608</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.243699898623163e-05</v>
+        <v>0.000512088998220861</v>
       </c>
     </row>
   </sheetData>
